--- a/data/iartypre13.xlsx
+++ b/data/iartypre13.xlsx
@@ -56,114 +56,114 @@
   <sheetData>
     <row r="11">
       <c r="A11">
-        <v>0.77829714219412094</v>
+        <v>0.96074261612837619</v>
       </c>
       <c r="B11">
-        <v>0.76929875288879268</v>
+        <v>0.93534335461866447</v>
       </c>
       <c r="C11">
-        <v>0.22170285780587901</v>
+        <v>0.039257383871623967</v>
       </c>
       <c r="D11">
-        <v>0.23070124711120737</v>
+        <v>0.064656645381335476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.020465395552398718</v>
+        <v>0.0039744827322027018</v>
       </c>
       <c r="B12">
-        <v>0.016132414886790271</v>
+        <v>0.0049262662387141182</v>
       </c>
       <c r="C12">
-        <v>0.020465395552398718</v>
+        <v>0.0039744827322027018</v>
       </c>
       <c r="D12">
-        <v>0.016132414886790271</v>
+        <v>0.0049262662387141182</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>38.029909571080729</v>
+        <v>241.72771172059467</v>
       </c>
       <c r="B13">
-        <v>47.686521719616742</v>
+        <v>189.86861637076544</v>
       </c>
       <c r="C13">
-        <v>10.833059993306289</v>
+        <v>9.8773567572822483</v>
       </c>
       <c r="D13">
-        <v>14.300478181980852</v>
+        <v>13.124878406533814</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>3.5922001416557968e-202</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>4.2661744205239737e-269</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>4.8071819347698591e-26</v>
+        <v>8.278319571315349e-23</v>
       </c>
       <c r="D14">
-        <v>1.2017210072255406e-42</v>
+        <v>9.7376436022358283e-39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.73814115566452732</v>
+        <v>0.9529509591697386</v>
       </c>
       <c r="B15">
-        <v>0.73764468428185404</v>
+        <v>0.92568580187400695</v>
       </c>
       <c r="C15">
-        <v>0.18154687127628533</v>
+        <v>0.03146572691298638</v>
       </c>
       <c r="D15">
-        <v>0.1990471785042687</v>
+        <v>0.054999092636677918</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.81845312872371456</v>
+        <v>0.96853427308701379</v>
       </c>
       <c r="B16">
-        <v>0.80095282149573133</v>
+        <v>0.94500090736332198</v>
       </c>
       <c r="C16">
-        <v>0.26185884433547268</v>
+        <v>0.047049040830261554</v>
       </c>
       <c r="D16">
-        <v>0.26235531571814608</v>
+        <v>0.074314198125993033</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B17">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C17">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D17">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B18">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C18">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D18">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="19">
@@ -182,114 +182,114 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.39227620232884158</v>
+        <v>0.89368995616930125</v>
       </c>
       <c r="B21">
-        <v>0.3510195437236544</v>
+        <v>0.81801816206177858</v>
       </c>
       <c r="C21">
-        <v>0.60772379767115836</v>
+        <v>0.10631004383069872</v>
       </c>
       <c r="D21">
-        <v>0.6489804562763456</v>
+        <v>0.1819818379382214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.024052543835989548</v>
+        <v>0.0062245185429703146</v>
       </c>
       <c r="B22">
-        <v>0.018107376095594509</v>
+        <v>0.0073509933219554164</v>
       </c>
       <c r="C22">
-        <v>0.024052543835989548</v>
+        <v>0.0062245185429703146</v>
       </c>
       <c r="D22">
-        <v>0.018107376095594509</v>
+        <v>0.0073509933219554164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>16.309135740639757</v>
+        <v>143.57575610062142</v>
       </c>
       <c r="B23">
-        <v>19.385445018124784</v>
+        <v>111.27994901295597</v>
       </c>
       <c r="C23">
-        <v>25.266508266864818</v>
+        <v>17.079239638664166</v>
       </c>
       <c r="D23">
-        <v>35.840668070855465</v>
+        <v>24.756088050670808</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1.1177620500994988e-53</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>3.5995537573693464e-72</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2.8871091975067577e-111</v>
+        <v>1.1247601280471585e-63</v>
       </c>
       <c r="D24">
-        <v>1.4774425317781067e-186</v>
+        <v>5.3372727579433287e-128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.34508172598424675</v>
+        <v>0.88148728314557812</v>
       </c>
       <c r="B25">
-        <v>0.31549032325394522</v>
+        <v>0.80360712492080977</v>
       </c>
       <c r="C25">
-        <v>0.56052932132656352</v>
+        <v>0.094107370806975593</v>
       </c>
       <c r="D25">
-        <v>0.61345123580663641</v>
+        <v>0.16757080079725259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.43947067867343642</v>
+        <v>0.90589262919302438</v>
       </c>
       <c r="B26">
-        <v>0.38654876419336359</v>
+        <v>0.83242919920274738</v>
       </c>
       <c r="C26">
-        <v>0.6549182740157532</v>
+        <v>0.11851271685442186</v>
       </c>
       <c r="D26">
-        <v>0.68450967674605478</v>
+        <v>0.1963928750791902</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B27">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C27">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D27">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B28">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C28">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D28">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="29">
@@ -308,44 +308,44 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.98239796700542859</v>
+        <v>0.9968376704536478</v>
       </c>
       <c r="B31">
-        <v>0.98113006296852578</v>
+        <v>0.99466534396167672</v>
       </c>
       <c r="C31">
-        <v>0.017602032994571547</v>
+        <v>0.0031623295463520289</v>
       </c>
       <c r="D31">
-        <v>0.018869937031474163</v>
+        <v>0.0053346560383231451</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.006288057425911541</v>
+        <v>0.0011294956364735914</v>
       </c>
       <c r="B32">
-        <v>0.005190016909950042</v>
+        <v>0.0014767840384684006</v>
       </c>
       <c r="C32">
-        <v>0.006288057425911541</v>
+        <v>0.0011294956364735914</v>
       </c>
       <c r="D32">
-        <v>0.005190016909950042</v>
+        <v>0.0014767840384684006</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>156.23234656814802</v>
+        <v>882.5511478431946</v>
       </c>
       <c r="B33">
-        <v>189.04178541067026</v>
+        <v>673.53473361837121</v>
       </c>
       <c r="C33">
-        <v>2.7992799369226322</v>
+        <v>2.7997713707200913</v>
       </c>
       <c r="D33">
-        <v>3.6358141714909751</v>
+        <v>3.6123467611796598</v>
       </c>
     </row>
     <row r="34">
@@ -356,66 +356,66 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.0052119557341022806</v>
+        <v>0.0051327480379371581</v>
       </c>
       <c r="D34">
-        <v>0.00029003351632866416</v>
+        <v>0.00030630372242132844</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.9700599133066512</v>
+        <v>0.99462338418580865</v>
       </c>
       <c r="B35">
-        <v>0.97094651930865794</v>
+        <v>0.99177022643191448</v>
       </c>
       <c r="C35">
-        <v>0.0052639792957941585</v>
+        <v>0.00094804327851288461</v>
       </c>
       <c r="D35">
-        <v>0.0086863933716063331</v>
+        <v>0.0024395385085609397</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.99473602070420597</v>
+        <v>0.99905195672148694</v>
       </c>
       <c r="B36">
-        <v>0.99131360662839363</v>
+        <v>0.99756046149143895</v>
       </c>
       <c r="C36">
-        <v>0.029940086693348935</v>
+        <v>0.0053766158141911732</v>
       </c>
       <c r="D36">
-        <v>0.029053480691341994</v>
+        <v>0.0082297735680853506</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B37">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C37">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D37">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B38">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C38">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D38">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="39">
@@ -434,114 +434,114 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.84702868847160884</v>
+        <v>0.97293163299867158</v>
       </c>
       <c r="B41">
-        <v>0.89855164041902713</v>
+        <v>0.97160953251383797</v>
       </c>
       <c r="C41">
-        <v>0.15297131152839105</v>
+        <v>0.027068367001328274</v>
       </c>
       <c r="D41">
-        <v>0.1014483595809729</v>
+        <v>0.028390467486162148</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.017752635464263897</v>
+        <v>0.0033272043716044333</v>
       </c>
       <c r="B42">
-        <v>0.011348244704393658</v>
+        <v>0.0033233362574371975</v>
       </c>
       <c r="C42">
-        <v>0.017752635464263897</v>
+        <v>0.0033272043716044333</v>
       </c>
       <c r="D42">
-        <v>0.011348244704393658</v>
+        <v>0.0033233362574371975</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>47.712841858138745</v>
+        <v>292.41715396325588</v>
       </c>
       <c r="B43">
-        <v>79.179790692311926</v>
+        <v>292.35968233413075</v>
       </c>
       <c r="C43">
-        <v>8.6168226591664503</v>
+        <v>8.1354686932788134</v>
       </c>
       <c r="D43">
-        <v>8.9395639787090158</v>
+        <v>8.5427610349774099</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2.8395461646797142e-269</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2.3822327801566139e-17</v>
+        <v>5.0885380578158926e-16</v>
       </c>
       <c r="D44">
-        <v>1.6340161827173095e-18</v>
+        <v>1.7007725277811762e-17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.81219551904947118</v>
+        <v>0.96640891373138882</v>
       </c>
       <c r="B45">
-        <v>0.87628478707053403</v>
+        <v>0.96509439637641103</v>
       </c>
       <c r="C45">
-        <v>0.11813814210625334</v>
+        <v>0.020545647734045543</v>
       </c>
       <c r="D45">
-        <v>0.079181506232479826</v>
+        <v>0.021875331348735223</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.88186185789374649</v>
+        <v>0.97945435226595434</v>
       </c>
       <c r="B46">
-        <v>0.92081849376752023</v>
+        <v>0.97812466865126491</v>
       </c>
       <c r="C46">
-        <v>0.18780448095052876</v>
+        <v>0.033591086268611001</v>
       </c>
       <c r="D46">
-        <v>0.12371521292946597</v>
+        <v>0.034905603623589077</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B47">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C47">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D47">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B48">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C48">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D48">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="49">
@@ -560,162 +560,162 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.72857142857142854</v>
+        <v>0.98346388163620535</v>
       </c>
       <c r="B51">
-        <v>0.75350701402805609</v>
+        <v>0.93383539537385685</v>
       </c>
       <c r="C51">
-        <v>0.80000000000000004</v>
+        <v>0.91291866028708135</v>
       </c>
       <c r="D51">
-        <v>0.27142857142857141</v>
+        <v>0.016536118363794605</v>
       </c>
       <c r="E51">
-        <v>0.24649298597194388</v>
+        <v>0.066164604626143084</v>
       </c>
       <c r="F51">
-        <v>0.20000000000000001</v>
+        <v>0.087081339712918662</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.037583725775243298</v>
+        <v>0.0026602409924772188</v>
       </c>
       <c r="B52">
-        <v>0.019292817661082196</v>
+        <v>0.0057651197343860034</v>
       </c>
       <c r="C52">
-        <v>0.018752289237539823</v>
+        <v>0.0087220876735115884</v>
       </c>
       <c r="D52">
-        <v>0.037583725775243298</v>
+        <v>0.0026602409924772188</v>
       </c>
       <c r="E52">
-        <v>0.019292817661082196</v>
+        <v>0.0057651197343860034</v>
       </c>
       <c r="F52">
-        <v>0.018752289237539823</v>
+        <v>0.0087220876735115884</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>19.385290136704445</v>
+        <v>369.68977036941413</v>
       </c>
       <c r="B53">
-        <v>39.056348702659612</v>
+        <v>161.98022563243643</v>
       </c>
       <c r="C53">
-        <v>42.66145801540307</v>
+        <v>104.66744826007147</v>
       </c>
       <c r="D53">
-        <v>7.221970835242832</v>
+        <v>6.2160226876273175</v>
       </c>
       <c r="E53">
-        <v>12.776411942625352</v>
+        <v>11.476709535017099</v>
       </c>
       <c r="F53">
-        <v>10.665364503850768</v>
+        <v>9.984001878057132</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>3.6076225951886993e-72</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>1.8853735586097692e-209</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>9.607933604533619e-235</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>9.5950823523188975e-13</v>
+        <v>5.496834525118799e-10</v>
       </c>
       <c r="E54">
-        <v>6.1725255913231891e-35</v>
+        <v>3.9726428827125029e-30</v>
       </c>
       <c r="F54">
-        <v>2.4876406031346713e-25</v>
+        <v>2.8978392012411793e-23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.65482686878031715</v>
+        <v>0.9782486909718342</v>
       </c>
       <c r="B55">
-        <v>0.71565179035877702</v>
+        <v>0.92253333713824026</v>
       </c>
       <c r="C55">
-        <v>0.76320536917580206</v>
+        <v>0.89581970183280724</v>
       </c>
       <c r="D55">
-        <v>0.19768401163746002</v>
+        <v>0.011320927699423403</v>
       </c>
       <c r="E55">
-        <v>0.20863776230266476</v>
+        <v>0.05486254639052647</v>
       </c>
       <c r="F55">
-        <v>0.16320536917580206</v>
+        <v>0.069982381258644602</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.80231598836253992</v>
+        <v>0.9886790723005765</v>
       </c>
       <c r="B56">
-        <v>0.79136223769733516</v>
+        <v>0.94513745360947343</v>
       </c>
       <c r="C56">
-        <v>0.83679463082419803</v>
+        <v>0.93001761874135547</v>
       </c>
       <c r="D56">
-        <v>0.34517313121968279</v>
+        <v>0.021751309028165806</v>
       </c>
       <c r="E56">
-        <v>0.28434820964122298</v>
+        <v>0.077466662861759697</v>
       </c>
       <c r="F56">
-        <v>0.23679463082419797</v>
+        <v>0.10418029816719272</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B57">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C57">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D57">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E57">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F57">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B58">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C58">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D58">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E58">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F58">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="59">
@@ -740,162 +740,162 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.5</v>
+        <v>0.96953872932985197</v>
       </c>
       <c r="B61">
-        <v>0.40480961923847697</v>
+        <v>0.84023668639053251</v>
       </c>
       <c r="C61">
-        <v>0.30109890109890108</v>
+        <v>0.69569377990430625</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>0.030461270670147957</v>
       </c>
       <c r="E61">
-        <v>0.59519038076152309</v>
+        <v>0.15976331360946747</v>
       </c>
       <c r="F61">
-        <v>0.69890109890109886</v>
+        <v>0.3043062200956938</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.042257712736425826</v>
+        <v>0.0035849374023803038</v>
       </c>
       <c r="B62">
-        <v>0.021973694940989601</v>
+        <v>0.0084976659528074629</v>
       </c>
       <c r="C62">
-        <v>0.021505856746678324</v>
+        <v>0.014233323810868583</v>
       </c>
       <c r="D62">
-        <v>0.042257712736425826</v>
+        <v>0.0035849374023803038</v>
       </c>
       <c r="E62">
-        <v>0.021973694940989601</v>
+        <v>0.0084976659528074629</v>
       </c>
       <c r="F62">
-        <v>0.021505856746678324</v>
+        <v>0.014233323810868583</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>11.832159566199232</v>
+        <v>270.44788248913466</v>
       </c>
       <c r="B63">
-        <v>18.422464693607242</v>
+        <v>98.878526298499025</v>
       </c>
       <c r="C63">
-        <v>14.000786141449918</v>
+        <v>48.877815831961449</v>
       </c>
       <c r="D63">
-        <v>11.832159566199232</v>
+        <v>8.4970160566604243</v>
       </c>
       <c r="E63">
-        <v>27.086495118818569</v>
+        <v>18.800846549714606</v>
       </c>
       <c r="F63">
-        <v>32.498175131248715</v>
+        <v>21.379842413430179</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1.7765404773805433e-30</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>3.3686237280738763e-66</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>4.4017082281592239e-41</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>1.7765404773805433e-30</v>
+        <v>2.510833224031903e-17</v>
       </c>
       <c r="E64">
-        <v>5.4491317891933856e-124</v>
+        <v>2.4102785297910304e-76</v>
       </c>
       <c r="F64">
-        <v>1.3832233719611139e-162</v>
+        <v>2.8520197333539318e-97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.41708441993849155</v>
+        <v>0.96251074497575817</v>
       </c>
       <c r="B65">
-        <v>0.36169413701891356</v>
+        <v>0.82357768885183269</v>
       </c>
       <c r="C65">
-        <v>0.25890138326369039</v>
+        <v>0.66779048179284772</v>
       </c>
       <c r="D65">
-        <v>0.41708441993849155</v>
+        <v>0.023433286316054139</v>
       </c>
       <c r="E65">
-        <v>0.55207489854195968</v>
+        <v>0.1431043160707676</v>
       </c>
       <c r="F65">
-        <v>0.65670358106588822</v>
+        <v>0.27640292198423527</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.58291558006150845</v>
+        <v>0.97656671368394576</v>
       </c>
       <c r="B66">
-        <v>0.44792510145804038</v>
+        <v>0.85689568392923232</v>
       </c>
       <c r="C66">
-        <v>0.34329641893411178</v>
+        <v>0.72359707801576478</v>
       </c>
       <c r="D66">
-        <v>0.58291558006150845</v>
+        <v>0.037489255024241774</v>
       </c>
       <c r="E66">
-        <v>0.63830586298108649</v>
+        <v>0.17642231114816734</v>
       </c>
       <c r="F66">
-        <v>0.7410986167363095</v>
+        <v>0.33220951820715233</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B67">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C67">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D67">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E67">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F67">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B68">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C68">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D68">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E68">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F68">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="69">
@@ -920,62 +920,62 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.97142857142857131</v>
+        <v>0.99825935596170579</v>
       </c>
       <c r="B71">
-        <v>0.97795591182364716</v>
+        <v>0.99408284023668636</v>
       </c>
       <c r="C71">
-        <v>0.98681318681318686</v>
+        <v>0.99425837320574162</v>
       </c>
       <c r="D71">
-        <v>0.028571428571428571</v>
+        <v>0.0017406440382941688</v>
       </c>
       <c r="E71">
-        <v>0.022044088176352707</v>
+        <v>0.0059171597633136093</v>
       </c>
       <c r="F71">
-        <v>0.013186813186813187</v>
+        <v>0.0057416267942583732</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.014080153722988034</v>
+        <v>0.00086956422882564677</v>
       </c>
       <c r="B72">
-        <v>0.0065728759384196143</v>
+        <v>0.0017788045897467329</v>
       </c>
       <c r="C72">
-        <v>0.0053478805794299955</v>
+        <v>0.0023372704228818526</v>
       </c>
       <c r="D72">
-        <v>0.014080153722988034</v>
+        <v>0.00086956422882564677</v>
       </c>
       <c r="E72">
-        <v>0.0065728759384196143</v>
+        <v>0.0017788045897467329</v>
       </c>
       <c r="F72">
-        <v>0.0053478805794299955</v>
+        <v>0.0023372704228818526</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>68.992753242641342</v>
+        <v>1147.9995644598475</v>
       </c>
       <c r="B73">
-        <v>148.78660741294738</v>
+        <v>558.84881676532234</v>
       </c>
       <c r="C73">
-        <v>184.52416282608286</v>
+        <v>425.39295559125839</v>
       </c>
       <c r="D73">
-        <v>2.0291986247835694</v>
+        <v>2.0017429197207459</v>
       </c>
       <c r="E73">
-        <v>3.3537964785705356</v>
+        <v>3.3264810521745378</v>
       </c>
       <c r="F73">
-        <v>2.465801730415361</v>
+        <v>2.4565521978320985</v>
       </c>
     </row>
     <row r="74">
@@ -989,93 +989,93 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.042680461744852294</v>
+        <v>0.045364253506762577</v>
       </c>
       <c r="E74">
-        <v>0.00082450510029784957</v>
+        <v>0.00088560322312317185</v>
       </c>
       <c r="F74">
-        <v>0.013823685032532031</v>
+        <v>0.01406019890581001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.94380132807589412</v>
+        <v>0.99655464452350651</v>
       </c>
       <c r="B75">
-        <v>0.96505900411580015</v>
+        <v>0.99059563546222373</v>
       </c>
       <c r="C75">
-        <v>0.97631989241486306</v>
+        <v>0.98967634062899612</v>
       </c>
       <c r="D75">
-        <v>0.00094418521875143727</v>
+        <v>3.5932600094837558e-05</v>
       </c>
       <c r="E75">
-        <v>0.0091471804685057233</v>
+        <v>0.0024299549888509631</v>
       </c>
       <c r="F75">
-        <v>0.0026935187884893751</v>
+        <v>0.0011595942175128843</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.9990558147812485</v>
+        <v>0.99996406739990507</v>
       </c>
       <c r="B76">
-        <v>0.99085281953149418</v>
+        <v>0.99757004501114899</v>
       </c>
       <c r="C76">
-        <v>0.99730648121151066</v>
+        <v>0.99884040578248712</v>
       </c>
       <c r="D76">
-        <v>0.0561986719241057</v>
+        <v>0.0034453554764934998</v>
       </c>
       <c r="E76">
-        <v>0.034940995884199688</v>
+        <v>0.0094043645377762559</v>
       </c>
       <c r="F76">
-        <v>0.023680107585137</v>
+        <v>0.010323659371003862</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B77">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C77">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D77">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E77">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F77">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B78">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C78">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D78">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E78">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F78">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="79">
@@ -1100,67 +1100,67 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.80000000000000004</v>
+        <v>0.98781549173194083</v>
       </c>
       <c r="B81">
-        <v>0.86372745490981961</v>
+        <v>0.96342119419042493</v>
       </c>
       <c r="C81">
-        <v>0.91208791208791207</v>
+        <v>0.96172248803827753</v>
       </c>
       <c r="D81">
-        <v>0.20000000000000001</v>
+        <v>0.012184508268059183</v>
       </c>
       <c r="E81">
-        <v>0.13627254509018036</v>
+        <v>0.036578805809575038</v>
       </c>
       <c r="F81">
-        <v>0.087912087912087919</v>
+        <v>0.038277511961722487</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.033806170189140658</v>
+        <v>0.0022885842654552071</v>
       </c>
       <c r="B82">
-        <v>0.015358269106561106</v>
+        <v>0.004353947265568381</v>
       </c>
       <c r="C82">
-        <v>0.013275073949921321</v>
+        <v>0.0059352441805714615</v>
       </c>
       <c r="D82">
-        <v>0.033806170189140658</v>
+        <v>0.0022885842654552071</v>
       </c>
       <c r="E82">
-        <v>0.015358269106561106</v>
+        <v>0.004353947265568381</v>
       </c>
       <c r="F82">
-        <v>0.013275073949921321</v>
+        <v>0.0059352441805714615</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>23.664319132398468</v>
+        <v>431.62731940545831</v>
       </c>
       <c r="B83">
-        <v>56.238593614747394</v>
+        <v>221.27534750117289</v>
       </c>
       <c r="C83">
-        <v>68.706804612061532</v>
+        <v>162.03587565721352</v>
       </c>
       <c r="D83">
-        <v>5.916079783099617</v>
+        <v>5.3240374199792218</v>
       </c>
       <c r="E83">
-        <v>8.8729103614914688</v>
+        <v>8.401297392562677</v>
       </c>
       <c r="F83">
-        <v>6.6223426132107504</v>
+        <v>6.4491890808841204</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2.9459158411768759e-100</v>
+        <v>0</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1169,93 +1169,93 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>4.4082288130291566e-09</v>
+        <v>1.0575522935280004e-07</v>
       </c>
       <c r="E84">
-        <v>2.8611910150656374e-18</v>
+        <v>5.636594770775598e-17</v>
       </c>
       <c r="F84">
-        <v>5.5379193398350847e-11</v>
+        <v>1.2263315103804685e-10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.73366753595079326</v>
+        <v>0.98332890449056665</v>
       </c>
       <c r="B85">
-        <v>0.83359236928286939</v>
+        <v>0.95488562722609049</v>
       </c>
       <c r="C85">
-        <v>0.88604034856305658</v>
+        <v>0.95008691437077464</v>
       </c>
       <c r="D85">
-        <v>0.13366753595079328</v>
+        <v>0.0076979210266850239</v>
       </c>
       <c r="E85">
-        <v>0.1061374594632301</v>
+        <v>0.028043238845240626</v>
       </c>
       <c r="F85">
-        <v>0.061864524387232438</v>
+        <v>0.026641938294219555</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.86633246404920683</v>
+        <v>0.99230207897331502</v>
       </c>
       <c r="B86">
-        <v>0.89386254053676983</v>
+        <v>0.97195676115475937</v>
       </c>
       <c r="C86">
-        <v>0.93813547561276756</v>
+        <v>0.97335806170578043</v>
       </c>
       <c r="D86">
-        <v>0.26633246404920674</v>
+        <v>0.01667109550943334</v>
       </c>
       <c r="E86">
-        <v>0.16640763071713061</v>
+        <v>0.04511437277390945</v>
       </c>
       <c r="F86">
-        <v>0.11395965143694339</v>
+        <v>0.049913085629225418</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B87">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C87">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D87">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E87">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F87">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B88">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C88">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D88">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E88">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F88">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="89">
@@ -1280,306 +1280,306 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.8169427157992486</v>
+        <v>0.94523943031387359</v>
       </c>
       <c r="B91">
-        <v>0.67900098039215684</v>
+        <v>0.93194752694484806</v>
       </c>
       <c r="C91">
-        <v>0.80487215608465612</v>
+        <v>0.96554983370288239</v>
       </c>
       <c r="D91">
-        <v>0.63421735377168198</v>
+        <v>0.92633108187134494</v>
       </c>
       <c r="E91">
-        <v>0.8053153452685422</v>
+        <v>0.98229568653589783</v>
       </c>
       <c r="F91">
-        <v>0.7604035714285714</v>
+        <v>0.9345444444444444</v>
       </c>
       <c r="G91">
-        <v>0.18305728420075135</v>
+        <v>0.054760569686126567</v>
       </c>
       <c r="H91">
-        <v>0.32099901960784316</v>
+        <v>0.068052473055151885</v>
       </c>
       <c r="I91">
-        <v>0.19512784391534391</v>
+        <v>0.034450166297117515</v>
       </c>
       <c r="J91">
-        <v>0.36578264622831785</v>
+        <v>0.073668918128654975</v>
       </c>
       <c r="K91">
-        <v>0.1946846547314578</v>
+        <v>0.017704313464102076</v>
       </c>
       <c r="L91">
-        <v>0.23959642857142857</v>
+        <v>0.065455555555555558</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.014980579600280659</v>
+        <v>0.0048289829802792769</v>
       </c>
       <c r="B92">
-        <v>0.034462747753783288</v>
+        <v>0.0083527070350144002</v>
       </c>
       <c r="C92">
-        <v>0.049985654182794229</v>
+        <v>0.0097727899563843108</v>
       </c>
       <c r="D92">
-        <v>0.04731070116906079</v>
+        <v>0.011149870817382564</v>
       </c>
       <c r="E92">
-        <v>0.058401547714819972</v>
+        <v>0.0060072919900752949</v>
       </c>
       <c r="F92">
-        <v>0.088224384890637053</v>
+        <v>0.025564526935953881</v>
       </c>
       <c r="G92">
-        <v>0.014980579600280659</v>
+        <v>0.0048289829802792769</v>
       </c>
       <c r="H92">
-        <v>0.034462747753783288</v>
+        <v>0.0083527070350144002</v>
       </c>
       <c r="I92">
-        <v>0.049985654182794229</v>
+        <v>0.0097727899563843108</v>
       </c>
       <c r="J92">
-        <v>0.04731070116906079</v>
+        <v>0.011149870817382564</v>
       </c>
       <c r="K92">
-        <v>0.058401547714819972</v>
+        <v>0.0060072919900752949</v>
       </c>
       <c r="L92">
-        <v>0.088224384890637053</v>
+        <v>0.025564526935953881</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>54.533451815438653</v>
+        <v>195.74296164928853</v>
       </c>
       <c r="B93">
-        <v>19.70246206841173</v>
+        <v>111.57431034491459</v>
       </c>
       <c r="C93">
-        <v>16.102063066760955</v>
+        <v>98.799814383825336</v>
       </c>
       <c r="D93">
-        <v>13.40536787872494</v>
+        <v>83.079983350766881</v>
       </c>
       <c r="E93">
-        <v>13.789280880037113</v>
+        <v>163.51722009830021</v>
       </c>
       <c r="F93">
-        <v>8.6189727746038436</v>
+        <v>36.556297199855621</v>
       </c>
       <c r="G93">
-        <v>12.219639632455996</v>
+        <v>11.339979848709174</v>
       </c>
       <c r="H93">
-        <v>9.3143768425314892</v>
+        <v>8.1473554345767329</v>
       </c>
       <c r="I93">
-        <v>3.9036769070136463</v>
+        <v>3.5251106849597349</v>
       </c>
       <c r="J93">
-        <v>7.7314991574786536</v>
+        <v>6.6071544088031668</v>
       </c>
       <c r="K93">
-        <v>3.3335530024327529</v>
+        <v>2.9471371615282798</v>
       </c>
       <c r="L93">
-        <v>2.7157619615986248</v>
+        <v>2.5604055071912573</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>7.0275289081903932e-314</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>3.6146655290971292e-74</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>1.6881121380216525e-52</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>4.8137365607181369e-38</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>5.4149203960361384e-40</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>2.3407289238056029e-17</v>
+        <v>1.3435880036381748e-260</v>
       </c>
       <c r="G94">
-        <v>2.8222221814939595e-32</v>
+        <v>1.8406601079853835e-29</v>
       </c>
       <c r="H94">
-        <v>6.5589521211539021e-20</v>
+        <v>4.6183308952775738e-16</v>
       </c>
       <c r="I94">
-        <v>0.0001005513530387469</v>
+        <v>0.00042695281021934911</v>
       </c>
       <c r="J94">
-        <v>2.4048717979110559e-14</v>
+        <v>4.309373291031689e-11</v>
       </c>
       <c r="K94">
-        <v>0.00088624980788591125</v>
+        <v>0.0032215628064492484</v>
       </c>
       <c r="L94">
-        <v>0.0067168051603898075</v>
+        <v>0.010483013698724959</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.78754871014252104</v>
+        <v>0.93577259365194077</v>
       </c>
       <c r="B95">
-        <v>0.61138021874938941</v>
+        <v>0.91557270982323424</v>
       </c>
       <c r="C95">
-        <v>0.70679326721598001</v>
+        <v>0.94639105707718441</v>
       </c>
       <c r="D95">
-        <v>0.54138709920923045</v>
+        <v>0.9044726478572106</v>
       </c>
       <c r="E95">
-        <v>0.69072328877301759</v>
+        <v>0.97051886887411942</v>
       </c>
       <c r="F95">
-        <v>0.58729491090063601</v>
+        <v>0.88442722476680102</v>
       </c>
       <c r="G95">
-        <v>0.15366327854402373</v>
+        <v>0.04529373302419374</v>
       </c>
       <c r="H95">
-        <v>0.25337825796507574</v>
+        <v>0.051677655933538125</v>
       </c>
       <c r="I95">
-        <v>0.097048955046667773</v>
+        <v>0.015291389671419551</v>
       </c>
       <c r="J95">
-        <v>0.27295239166586632</v>
+        <v>0.051810484114520675</v>
       </c>
       <c r="K95">
-        <v>0.080092598235933135</v>
+        <v>0.0059274958023236898</v>
       </c>
       <c r="L95">
-        <v>0.066487768043493156</v>
+        <v>0.015338335877912189</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.84633672145597616</v>
+        <v>0.95470626697580641</v>
       </c>
       <c r="B96">
-        <v>0.74662174203492426</v>
+        <v>0.94832234406646188</v>
       </c>
       <c r="C96">
-        <v>0.90295104495333223</v>
+        <v>0.98470861032858037</v>
       </c>
       <c r="D96">
-        <v>0.72704760833413351</v>
+        <v>0.94818951588547928</v>
       </c>
       <c r="E96">
-        <v>0.91990740176406682</v>
+        <v>0.99407250419767623</v>
       </c>
       <c r="F96">
-        <v>0.93351223195650679</v>
+        <v>0.98466166412208778</v>
       </c>
       <c r="G96">
-        <v>0.21245128985747896</v>
+        <v>0.064227406348059402</v>
       </c>
       <c r="H96">
-        <v>0.38861978125061059</v>
+        <v>0.084427290176765646</v>
       </c>
       <c r="I96">
-        <v>0.29320673278402004</v>
+        <v>0.053608942922815483</v>
       </c>
       <c r="J96">
-        <v>0.45861290079076938</v>
+        <v>0.095527352142789276</v>
       </c>
       <c r="K96">
-        <v>0.30927671122698247</v>
+        <v>0.02948113112588046</v>
       </c>
       <c r="L96">
-        <v>0.41270508909936399</v>
+        <v>0.11557277523319892</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="G97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="H97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="I97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="J97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="K97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="L97">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="G98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="H98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="I98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="J98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="K98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="L98">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="99">
@@ -1622,306 +1622,306 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.2980174850336007</v>
+        <v>0.799643165753948</v>
       </c>
       <c r="B101">
-        <v>0.48306666666666664</v>
+        <v>0.89028935073639826</v>
       </c>
       <c r="C101">
-        <v>0.41749880952380958</v>
+        <v>0.90019564143173914</v>
       </c>
       <c r="D101">
-        <v>0.47857968939088347</v>
+        <v>0.89521233918128651</v>
       </c>
       <c r="E101">
-        <v>0.38079616368286451</v>
+        <v>0.94907893823398715</v>
       </c>
       <c r="F101">
-        <v>0.61837341269841262</v>
+        <v>0.88944636752136752</v>
       </c>
       <c r="G101">
-        <v>0.7019825149663993</v>
+        <v>0.20035683424605194</v>
       </c>
       <c r="H101">
-        <v>0.51693333333333336</v>
+        <v>0.10971064926360179</v>
       </c>
       <c r="I101">
-        <v>0.58250119047619053</v>
+        <v>0.099804358568261003</v>
       </c>
       <c r="J101">
-        <v>0.52142031060911664</v>
+        <v>0.10478766081871345</v>
       </c>
       <c r="K101">
-        <v>0.61920383631713549</v>
+        <v>0.050921061766012833</v>
       </c>
       <c r="L101">
-        <v>0.38162658730158727</v>
+        <v>0.11055363247863248</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.017653697373350406</v>
+        <v>0.0080289785473922227</v>
       </c>
       <c r="B102">
-        <v>0.036877300074125291</v>
+        <v>0.010182445453824436</v>
       </c>
       <c r="C102">
-        <v>0.060495719907974907</v>
+        <v>0.015202699003527774</v>
       </c>
       <c r="D102">
-        <v>0.048610425214820452</v>
+        <v>0.01304327515224879</v>
       </c>
       <c r="E102">
-        <v>0.068056416091020921</v>
+        <v>0.010161554133291595</v>
       </c>
       <c r="F102">
-        <v>0.092369148740214832</v>
+        <v>0.029689483565167527</v>
       </c>
       <c r="G102">
-        <v>0.017653697373350406</v>
+        <v>0.0080289785473922227</v>
       </c>
       <c r="H102">
-        <v>0.036877300074125291</v>
+        <v>0.010182445453824436</v>
       </c>
       <c r="I102">
-        <v>0.060495719907974907</v>
+        <v>0.015202699003527774</v>
       </c>
       <c r="J102">
-        <v>0.048610425214820452</v>
+        <v>0.01304327515224879</v>
       </c>
       <c r="K102">
-        <v>0.068056416091020921</v>
+        <v>0.010161554133291595</v>
       </c>
       <c r="L102">
-        <v>0.092369148740214832</v>
+        <v>0.029689483565167527</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>16.881306999375706</v>
+        <v>99.594632247917588</v>
       </c>
       <c r="B103">
-        <v>13.099295927187661</v>
+        <v>87.433746124514073</v>
       </c>
       <c r="C103">
-        <v>6.9012950033308451</v>
+        <v>59.212883266507447</v>
       </c>
       <c r="D103">
-        <v>9.8452068105952932</v>
+        <v>68.634014749504303</v>
       </c>
       <c r="E103">
-        <v>5.5953014506901892</v>
+        <v>93.398994463315972</v>
       </c>
       <c r="F103">
-        <v>6.6945881945666441</v>
+        <v>29.958297037031965</v>
       </c>
       <c r="G103">
-        <v>39.764050562353873</v>
+        <v>24.954212178226204</v>
       </c>
       <c r="H103">
-        <v>14.01765672362864</v>
+        <v>10.77448926793862</v>
       </c>
       <c r="I103">
-        <v>9.6288000434126868</v>
+        <v>6.5649105165537698</v>
       </c>
       <c r="J103">
-        <v>10.726512025040771</v>
+        <v>8.0338457630901861</v>
       </c>
       <c r="K103">
-        <v>9.0983903044349503</v>
+        <v>5.0111489933595585</v>
       </c>
       <c r="L103">
-        <v>4.1315373423533366</v>
+        <v>3.7236630349588458</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>5.5466775510917119e-57</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>1.6155085780139368e-36</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>8.7225247808752856e-12</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>5.7293240020894714e-22</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>2.7840261562514184e-08</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>3.4534515201541081e-11</v>
+        <v>4.7443946737618385e-182</v>
       </c>
       <c r="G104">
-        <v>1.881120835156492e-214</v>
+        <v>6.4973221157829966e-130</v>
       </c>
       <c r="H104">
-        <v>3.5990633470889117e-41</v>
+        <v>8.6983695662594134e-27</v>
       </c>
       <c r="I104">
-        <v>4.0620177546999744e-21</v>
+        <v>5.7133459577744577e-11</v>
       </c>
       <c r="J104">
-        <v>1.3692992842516502e-25</v>
+        <v>1.1593353311267958e-15</v>
       </c>
       <c r="K104">
-        <v>4.2401114049630661e-19</v>
+        <v>5.5898834552189738e-07</v>
       </c>
       <c r="L104">
-        <v>3.8790033307288168e-05</v>
+        <v>0.00019843152329859862</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.26337844607113642</v>
+        <v>0.78390299255790807</v>
       </c>
       <c r="B105">
-        <v>0.41070821352888737</v>
+        <v>0.87032747712366054</v>
       </c>
       <c r="C105">
-        <v>0.2987976924355556</v>
+        <v>0.87039196043417166</v>
       </c>
       <c r="D105">
-        <v>0.38319919331758084</v>
+        <v>0.86964203671651263</v>
       </c>
       <c r="E105">
-        <v>0.2472598965334547</v>
+        <v>0.92915802039184214</v>
       </c>
       <c r="F105">
-        <v>0.43713214213194396</v>
+        <v>0.83124249879033196</v>
       </c>
       <c r="G105">
-        <v>0.66734347600393507</v>
+        <v>0.18461666105001201</v>
       </c>
       <c r="H105">
-        <v>0.44457488019555408</v>
+        <v>0.089748775650864074</v>
       </c>
       <c r="I105">
-        <v>0.46380007338793655</v>
+        <v>0.070000677570693504</v>
       </c>
       <c r="J105">
-        <v>0.42603981453581402</v>
+        <v>0.07921735835393956</v>
       </c>
       <c r="K105">
-        <v>0.48566756916772569</v>
+        <v>0.031000143923867848</v>
       </c>
       <c r="L105">
-        <v>0.20038531673511858</v>
+        <v>0.052349763747596888</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.33265652399606499</v>
+        <v>0.81538333894998793</v>
       </c>
       <c r="B106">
-        <v>0.55542511980444587</v>
+        <v>0.91025122434913597</v>
       </c>
       <c r="C106">
-        <v>0.5361999266120635</v>
+        <v>0.92999932242930661</v>
       </c>
       <c r="D106">
-        <v>0.57396018546418603</v>
+        <v>0.92078264164606038</v>
       </c>
       <c r="E106">
-        <v>0.51433243083227431</v>
+        <v>0.96899985607613215</v>
       </c>
       <c r="F106">
-        <v>0.79961468326488128</v>
+        <v>0.94765023625240308</v>
       </c>
       <c r="G106">
-        <v>0.73662155392886353</v>
+        <v>0.21609700744209187</v>
       </c>
       <c r="H106">
-        <v>0.58929178647111258</v>
+        <v>0.12967252287633951</v>
       </c>
       <c r="I106">
-        <v>0.70120230756444446</v>
+        <v>0.1296080395658285</v>
       </c>
       <c r="J106">
-        <v>0.61680080668241921</v>
+        <v>0.13035796328348734</v>
       </c>
       <c r="K106">
-        <v>0.7527401034665453</v>
+        <v>0.070841979608157815</v>
       </c>
       <c r="L106">
-        <v>0.56286785786805593</v>
+        <v>0.16875750120966806</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="G107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="H107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="I107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="J107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="K107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="L107">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="G108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="H108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="I108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="J108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="K108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="L108">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="109">
@@ -1964,37 +1964,37 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.98367992672905036</v>
+        <v>0.99511273110087084</v>
       </c>
       <c r="B111">
-        <v>0.99316323529411776</v>
+        <v>0.99862914285714299</v>
       </c>
       <c r="C111">
-        <v>0.94082321428571425</v>
+        <v>0.99168926552106418</v>
       </c>
       <c r="D111">
-        <v>0.98066567164179097</v>
+        <v>0.99563499999999983</v>
       </c>
       <c r="E111">
-        <v>0.9538790281329923</v>
+        <v>0.99570152828032765</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111">
-        <v>0.016320073270949684</v>
+        <v>0.0048872688991292322</v>
       </c>
       <c r="H111">
-        <v>0.006836764705882353</v>
+        <v>0.0013708571428571428</v>
       </c>
       <c r="I111">
-        <v>0.059176785714285716</v>
+        <v>0.0083107344789356986</v>
       </c>
       <c r="J111">
-        <v>0.019334328358208957</v>
+        <v>0.004365</v>
       </c>
       <c r="K111">
-        <v>0.046120971867007671</v>
+        <v>0.0042984717196724431</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -2002,71 +2002,71 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.0049140696354218992</v>
+        <v>0.001476911827054227</v>
       </c>
       <c r="B112">
-        <v>0.0067863081882058975</v>
+        <v>0.0013669347967839901</v>
       </c>
       <c r="C112">
-        <v>0.027980531826930586</v>
+        <v>0.0041322726476693376</v>
       </c>
       <c r="D112">
-        <v>0.010909906994426604</v>
+        <v>0.0025055525070101082</v>
       </c>
       <c r="E112">
-        <v>0.032264612771333252</v>
+        <v>0.0031213339295915639</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0.0049140696354218992</v>
+        <v>0.001476911827054227</v>
       </c>
       <c r="H112">
-        <v>0.0067863081882058975</v>
+        <v>0.0013669347967839901</v>
       </c>
       <c r="I112">
-        <v>0.027980531826930586</v>
+        <v>0.0041322726476693376</v>
       </c>
       <c r="J112">
-        <v>0.010909906994426604</v>
+        <v>0.0025055525070101082</v>
       </c>
       <c r="K112">
-        <v>0.032264612771333252</v>
+        <v>0.0031213339295915639</v>
       </c>
       <c r="L112"/>
     </row>
     <row r="113">
       <c r="A113">
-        <v>200.17622860661726</v>
+        <v>673.77937726023356</v>
       </c>
       <c r="B113">
-        <v>146.34808908622247</v>
+        <v>730.56092010140799</v>
       </c>
       <c r="C113">
-        <v>33.624207720747989</v>
+        <v>239.9864070151304</v>
       </c>
       <c r="D113">
-        <v>89.887628936045957</v>
+        <v>397.37143692434427</v>
       </c>
       <c r="E113">
-        <v>29.564248450565728</v>
+        <v>318.99872001539364</v>
       </c>
       <c r="F113"/>
       <c r="G113">
-        <v>3.321091169182937</v>
+        <v>3.3091135229630666</v>
       </c>
       <c r="H113">
-        <v>1.0074350466081314</v>
+        <v>1.0028694463571934</v>
       </c>
       <c r="I113">
-        <v>2.1149271243418428</v>
+        <v>2.011177670869098</v>
       </c>
       <c r="J113">
-        <v>1.7721808598447286</v>
+        <v>1.7421307227796963</v>
       </c>
       <c r="K113">
-        <v>1.4294599533512964</v>
+        <v>1.3771265159812334</v>
       </c>
       <c r="L113"/>
     </row>
@@ -2078,169 +2078,169 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>1.1415762923943274e-170</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>1.4351921893947948e-141</v>
+        <v>0</v>
       </c>
       <c r="F114"/>
       <c r="G114">
-        <v>0.00092636610666377696</v>
+        <v>0.00094228852692814337</v>
       </c>
       <c r="H114">
-        <v>0.31394913488318388</v>
+        <v>0.31597052903158218</v>
       </c>
       <c r="I114">
-        <v>0.034662413452973155</v>
+        <v>0.044358213281592944</v>
       </c>
       <c r="J114">
-        <v>0.076643581744240991</v>
+        <v>0.081544707332209948</v>
       </c>
       <c r="K114">
-        <v>0.15315834794382654</v>
+        <v>0.16853242423351802</v>
       </c>
       <c r="L114"/>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.97403783046072978</v>
+        <v>0.99221736305176034</v>
       </c>
       <c r="B115">
-        <v>0.97984754347210812</v>
+        <v>0.99594937601979583</v>
       </c>
       <c r="C115">
-        <v>0.88592147264791832</v>
+        <v>0.98358827399597171</v>
       </c>
       <c r="D115">
-        <v>0.95925889857524427</v>
+        <v>0.99072306379549713</v>
       </c>
       <c r="E115">
-        <v>0.89057131670806666</v>
+        <v>0.98958240162374889</v>
       </c>
       <c r="F115"/>
       <c r="G115">
-        <v>0.0066779770026291624</v>
+        <v>0.0019919008500187047</v>
       </c>
       <c r="H115">
-        <v>-0.0064789271161272474</v>
+        <v>-0.001308909694490041</v>
       </c>
       <c r="I115">
-        <v>0.0042750440764898201</v>
+        <v>0.00020974295384320468</v>
       </c>
       <c r="J115">
-        <v>-0.0020724447083377909</v>
+        <v>-0.00054693620450267308</v>
       </c>
       <c r="K115">
-        <v>-0.017186739557917941</v>
+        <v>-0.0018206549369063595</v>
       </c>
       <c r="L115"/>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.99332202299737093</v>
+        <v>0.99800809914998134</v>
       </c>
       <c r="B116">
-        <v>1.0064789271161274</v>
+        <v>1.0013089096944903</v>
       </c>
       <c r="C116">
-        <v>0.99572495592351018</v>
+        <v>0.99979025704615665</v>
       </c>
       <c r="D116">
-        <v>1.0020724447083378</v>
+        <v>1.0005469362045025</v>
       </c>
       <c r="E116">
-        <v>1.0171867395579179</v>
+        <v>1.0018206549369064</v>
       </c>
       <c r="F116"/>
       <c r="G116">
-        <v>0.025962169539270205</v>
+        <v>0.00778263694823976</v>
       </c>
       <c r="H116">
-        <v>0.020152456527891952</v>
+        <v>0.0040506239802043272</v>
       </c>
       <c r="I116">
-        <v>0.11407852735208161</v>
+        <v>0.016411726004028192</v>
       </c>
       <c r="J116">
-        <v>0.040741101424755705</v>
+        <v>0.009276936204502673</v>
       </c>
       <c r="K116">
-        <v>0.10942868329193328</v>
+        <v>0.010417598376251246</v>
       </c>
       <c r="L116"/>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B117">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C117">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D117">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E117">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F117">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="G117">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="H117">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="I117">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="J117">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="K117">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="L117"/>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B118">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C118">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D118">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E118">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F118">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="G118">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="H118">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="I118">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="J118">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="K118">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="L118">
         <v>1.9599639845400538</v>
@@ -2286,116 +2286,116 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.90135987243810012</v>
+        <v>0.97060295048359713</v>
       </c>
       <c r="B121">
-        <v>0.84476911764705886</v>
+        <v>0.96741344429318588</v>
       </c>
       <c r="C121">
-        <v>0.83680582010582005</v>
+        <v>0.97494879909724441</v>
       </c>
       <c r="D121">
-        <v>0.90653728519564347</v>
+        <v>0.98073809941520484</v>
       </c>
       <c r="E121">
-        <v>0.86000946291560099</v>
+        <v>0.98768669777185303</v>
       </c>
       <c r="F121">
-        <v>0.62122301587301587</v>
+        <v>0.90054658119658115</v>
       </c>
       <c r="G121">
-        <v>0.098640127561899688</v>
+        <v>0.029397049516402828</v>
       </c>
       <c r="H121">
-        <v>0.15523088235294119</v>
+        <v>0.032586555706814131</v>
       </c>
       <c r="I121">
-        <v>0.16319417989417989</v>
+        <v>0.025051200902755782</v>
       </c>
       <c r="J121">
-        <v>0.093462714804356598</v>
+        <v>0.019261900584795322</v>
       </c>
       <c r="K121">
-        <v>0.13999053708439899</v>
+        <v>0.012313302228147019</v>
       </c>
       <c r="L121">
-        <v>0.37877698412698413</v>
+        <v>0.099453418803418805</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.011653942707460216</v>
+        <v>0.003601269872518068</v>
       </c>
       <c r="B122">
-        <v>0.026081764016712149</v>
+        <v>0.0058468125080942375</v>
       </c>
       <c r="C122">
-        <v>0.043119138417332031</v>
+        <v>0.0076725141740892136</v>
       </c>
       <c r="D122">
-        <v>0.026801569738820988</v>
+        <v>0.005667604641818931</v>
       </c>
       <c r="E122">
-        <v>0.047612523624092906</v>
+        <v>0.0047126592442856014</v>
       </c>
       <c r="F122">
-        <v>0.098371750752569598</v>
+        <v>0.030279051595157983</v>
       </c>
       <c r="G122">
-        <v>0.011653942707460216</v>
+        <v>0.003601269872518068</v>
       </c>
       <c r="H122">
-        <v>0.026081764016712149</v>
+        <v>0.0058468125080942375</v>
       </c>
       <c r="I122">
-        <v>0.043119138417332031</v>
+        <v>0.0076725141740892136</v>
       </c>
       <c r="J122">
-        <v>0.026801569738820988</v>
+        <v>0.005667604641818931</v>
       </c>
       <c r="K122">
-        <v>0.047612523624092906</v>
+        <v>0.0047126592442856014</v>
       </c>
       <c r="L122">
-        <v>0.098371750752569598</v>
+        <v>0.030279051595157983</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>77.343770693252068</v>
+        <v>269.51686067474174</v>
       </c>
       <c r="B123">
-        <v>32.389263130582911</v>
+        <v>165.45997378125492</v>
       </c>
       <c r="C123">
-        <v>19.40683072112267</v>
+        <v>127.07031580205303</v>
       </c>
       <c r="D123">
-        <v>33.824036951185022</v>
+        <v>173.04278639669755</v>
       </c>
       <c r="E123">
-        <v>18.062673377817315</v>
+        <v>209.58160702356867</v>
       </c>
       <c r="F123">
-        <v>6.3150549941471761</v>
+        <v>29.741571606575363</v>
       </c>
       <c r="G123">
-        <v>8.4640992355965228</v>
+        <v>8.1629676633614583</v>
       </c>
       <c r="H123">
-        <v>5.9517018194580498</v>
+        <v>5.5733881771823199</v>
       </c>
       <c r="I123">
-        <v>3.7847272901116891</v>
+        <v>3.2650576244428446</v>
       </c>
       <c r="J123">
-        <v>3.4872104774139272</v>
+        <v>3.3985963739724636</v>
       </c>
       <c r="K123">
-        <v>2.9402040981831283</v>
+        <v>2.6128140376535138</v>
       </c>
       <c r="L123">
-        <v>3.8504650087981682</v>
+        <v>3.2845618856609997</v>
       </c>
     </row>
     <row r="124">
@@ -2403,189 +2403,189 @@
         <v>0</v>
       </c>
       <c r="B124">
-        <v>8.3689721379439754e-162</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>2.6420497621349348e-72</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>4.2004431346425144e-172</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>5.2259964399065476e-64</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>3.9237423485621751e-10</v>
+        <v>1.1949692034656888e-179</v>
       </c>
       <c r="G124">
-        <v>8.222936936044597e-17</v>
+        <v>4.0652883590874526e-16</v>
       </c>
       <c r="H124">
-        <v>3.5722269393572432e-09</v>
+        <v>2.6241913456534284e-08</v>
       </c>
       <c r="I124">
-        <v>0.00016225046070922388</v>
+        <v>0.0011015054092374033</v>
       </c>
       <c r="J124">
-        <v>0.00050752073734222723</v>
+        <v>0.00068241661616268959</v>
       </c>
       <c r="K124">
-        <v>0.0033491244273135068</v>
+        <v>0.0090058670064424411</v>
       </c>
       <c r="L124">
-        <v>0.00012474899523623426</v>
+        <v>0.0010281727906500885</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.87849319658132308</v>
+        <v>0.96354294762214643</v>
       </c>
       <c r="B125">
-        <v>0.79359302569996837</v>
+        <v>0.9559512338788777</v>
       </c>
       <c r="C125">
-        <v>0.75220000161475631</v>
+        <v>0.95990744592431065</v>
       </c>
       <c r="D125">
-        <v>0.8539488331108307</v>
+        <v>0.96962721175467115</v>
       </c>
       <c r="E125">
-        <v>0.76658699021558319</v>
+        <v>0.97844790453294639</v>
       </c>
       <c r="F125">
-        <v>0.42820379530633923</v>
+        <v>0.84118691128260281</v>
       </c>
       <c r="G125">
-        <v>0.075773451705122605</v>
+        <v>0.022337046654952175</v>
       </c>
       <c r="H125">
-        <v>0.10405479040585068</v>
+        <v>0.021124345292505977</v>
       </c>
       <c r="I125">
-        <v>0.078588361403116105</v>
+        <v>0.010009847729821979</v>
       </c>
       <c r="J125">
-        <v>0.040874262719543794</v>
+        <v>0.0081510129242616507</v>
       </c>
       <c r="K125">
-        <v>0.046568064384381172</v>
+        <v>0.0030745089892403443</v>
       </c>
       <c r="L125">
-        <v>0.18575776356030752</v>
+        <v>0.040093748889440464</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.92422654829487716</v>
+        <v>0.97766295334504782</v>
       </c>
       <c r="B126">
-        <v>0.89594520959414936</v>
+        <v>0.97887565470749405</v>
       </c>
       <c r="C126">
-        <v>0.9214116385968838</v>
+        <v>0.98999015227017817</v>
       </c>
       <c r="D126">
-        <v>0.95912573728045625</v>
+        <v>0.99184898707573854</v>
       </c>
       <c r="E126">
-        <v>0.95343193561561879</v>
+        <v>0.99692549101075967</v>
       </c>
       <c r="F126">
-        <v>0.81424223643969251</v>
+        <v>0.95990625111055949</v>
       </c>
       <c r="G126">
-        <v>0.12150680341867677</v>
+        <v>0.036457052377853481</v>
       </c>
       <c r="H126">
-        <v>0.20640697430003169</v>
+        <v>0.044048766121122282</v>
       </c>
       <c r="I126">
-        <v>0.24779999838524369</v>
+        <v>0.040092554075689582</v>
       </c>
       <c r="J126">
-        <v>0.14605116688916941</v>
+        <v>0.030372788245328991</v>
       </c>
       <c r="K126">
-        <v>0.23341300978441681</v>
+        <v>0.021552095467053695</v>
       </c>
       <c r="L126">
-        <v>0.57179620469366077</v>
+        <v>0.15881308871739713</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="G127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="H127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="I127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="J127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="K127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="L127">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="G128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="H128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="I128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="J128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="K128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="L128">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="129">
@@ -2628,162 +2628,162 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.64333119356833635</v>
+        <v>0.92414996999287913</v>
       </c>
       <c r="B131">
-        <v>0.7862707173382173</v>
+        <v>0.94758384660436568</v>
       </c>
       <c r="C131">
-        <v>0.85674969053934569</v>
+        <v>0.96971643360042692</v>
       </c>
       <c r="D131">
-        <v>0.3566688064316636</v>
+        <v>0.0758500300071209</v>
       </c>
       <c r="E131">
-        <v>0.21372928266178265</v>
+        <v>0.052416153395634248</v>
       </c>
       <c r="F131">
-        <v>0.14325030946065428</v>
+        <v>0.030283566399573015</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.031540290685475959</v>
+        <v>0.0078835828187455281</v>
       </c>
       <c r="B132">
-        <v>0.016704876364408958</v>
+        <v>0.0044387866614588158</v>
       </c>
       <c r="C132">
-        <v>0.021637584737011988</v>
+        <v>0.0049191499242388333</v>
       </c>
       <c r="D132">
-        <v>0.031540290685475959</v>
+        <v>0.0078835828187455281</v>
       </c>
       <c r="E132">
-        <v>0.016704876364408958</v>
+        <v>0.0044387866614588158</v>
       </c>
       <c r="F132">
-        <v>0.021637584737011988</v>
+        <v>0.0049191499242388333</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>20.397123158556841</v>
+        <v>117.22461617266731</v>
       </c>
       <c r="B133">
-        <v>47.06833502901155</v>
+        <v>213.4781233872007</v>
       </c>
       <c r="C133">
-        <v>39.595440108148473</v>
+        <v>197.1308963002335</v>
       </c>
       <c r="D133">
-        <v>11.308355081074335</v>
+        <v>9.6212638023875687</v>
       </c>
       <c r="E133">
-        <v>12.794424693687022</v>
+        <v>11.808666960895925</v>
       </c>
       <c r="F133">
-        <v>6.620438981603094</v>
+        <v>6.1562600989964658</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1.3404491154690633e-78</v>
+        <v>0</v>
       </c>
       <c r="B134">
-        <v>6.1969535454755711e-265</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>2.9137984888443837e-213</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>4.0840689712255497e-28</v>
+        <v>9.8574059934645847e-22</v>
       </c>
       <c r="E134">
-        <v>5.0460654628518933e-35</v>
+        <v>8.9402858472369794e-32</v>
       </c>
       <c r="F134">
-        <v>5.6069178686244711e-11</v>
+        <v>8.0069657595595462e-10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.58144470402247495</v>
+        <v>0.90869483354682612</v>
       </c>
       <c r="B135">
-        <v>0.75349339873959831</v>
+        <v>0.93888195875907732</v>
       </c>
       <c r="C135">
-        <v>0.81429370384669875</v>
+        <v>0.96007283182371594</v>
       </c>
       <c r="D135">
-        <v>0.2947823168858022</v>
+        <v>0.060394893561067899</v>
       </c>
       <c r="E135">
-        <v>0.18095196406316361</v>
+        <v>0.043714265550345861</v>
       </c>
       <c r="F135">
-        <v>0.10079432276800739</v>
+        <v>0.020639964622862043</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.70521768311419775</v>
+        <v>0.93960510643893214</v>
       </c>
       <c r="B136">
-        <v>0.81904803593683628</v>
+        <v>0.95628573444965403</v>
       </c>
       <c r="C136">
-        <v>0.89920567723199263</v>
+        <v>0.97936003537713789</v>
       </c>
       <c r="D136">
-        <v>0.418555295977525</v>
+        <v>0.091305166453173908</v>
       </c>
       <c r="E136">
-        <v>0.24650660126040169</v>
+        <v>0.061118041240922634</v>
       </c>
       <c r="F136">
-        <v>0.1857062961533012</v>
+        <v>0.039927168176283986</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B137">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C137">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D137">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E137">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F137">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B138">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C138">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D138">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E138">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F138">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="139">
@@ -2808,162 +2808,162 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.50021205163883742</v>
+        <v>0.89457334534892363</v>
       </c>
       <c r="B141">
-        <v>0.3616650885225885</v>
+        <v>0.84546738640939478</v>
       </c>
       <c r="C141">
-        <v>0.25843542587680518</v>
+        <v>0.83674359819699951</v>
       </c>
       <c r="D141">
-        <v>0.49978794836116258</v>
+        <v>0.10542665465107644</v>
       </c>
       <c r="E141">
-        <v>0.6383349114774115</v>
+        <v>0.15453261359060513</v>
       </c>
       <c r="F141">
-        <v>0.74156457412319488</v>
+        <v>0.16325640180300038</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.032806252133902584</v>
+        <v>0.0090456551786633962</v>
       </c>
       <c r="B142">
-        <v>0.019505434358945781</v>
+        <v>0.00697413776938663</v>
       </c>
       <c r="C142">
-        <v>0.026629184193184181</v>
+        <v>0.010019887778638209</v>
       </c>
       <c r="D142">
-        <v>0.032806252133902584</v>
+        <v>0.0090456551786633962</v>
       </c>
       <c r="E142">
-        <v>0.019505434358945781</v>
+        <v>0.00697413776938663</v>
       </c>
       <c r="F142">
-        <v>0.026629184193184181</v>
+        <v>0.010019887778638209</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>15.247461050935138</v>
+        <v>98.895362213122468</v>
       </c>
       <c r="B143">
-        <v>18.54176030469775</v>
+        <v>121.22894820355019</v>
       </c>
       <c r="C143">
-        <v>9.7049697054914841</v>
+        <v>83.508280400194295</v>
       </c>
       <c r="D143">
-        <v>15.234533537120278</v>
+        <v>11.654949538619764</v>
       </c>
       <c r="E143">
-        <v>32.726003416819673</v>
+        <v>22.157952524100505</v>
       </c>
       <c r="F143">
-        <v>27.847814215540279</v>
+        <v>16.293236552115193</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>9.8715635085736734e-48</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>6.2532473006555553e-67</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>2.0469530057881188e-21</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>1.1620755110548383e-47</v>
+        <v>5.2458358556426459e-31</v>
       </c>
       <c r="E144">
-        <v>3.2019148296571705e-164</v>
+        <v>5.0040425319833108e-104</v>
       </c>
       <c r="F144">
-        <v>2.2934200550654495e-129</v>
+        <v>2.9965161900938218e-58</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.43584156755009773</v>
+        <v>0.87684005856239189</v>
       </c>
       <c r="B145">
-        <v>0.32339268096680607</v>
+        <v>0.83179514457499071</v>
       </c>
       <c r="C145">
-        <v>0.20618521849538768</v>
+        <v>0.81710040596405054</v>
       </c>
       <c r="D145">
-        <v>0.43541746427242289</v>
+        <v>0.087693367864544694</v>
       </c>
       <c r="E145">
-        <v>0.60006250392162908</v>
+        <v>0.14086037175620103</v>
       </c>
       <c r="F145">
-        <v>0.68931436674177737</v>
+        <v>0.14361320957005136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.56458253572757711</v>
+        <v>0.91230663213545538</v>
       </c>
       <c r="B146">
-        <v>0.39993749607837092</v>
+        <v>0.85913962824379886</v>
       </c>
       <c r="C146">
-        <v>0.31068563325822268</v>
+        <v>0.85638679042994847</v>
       </c>
       <c r="D146">
-        <v>0.56415843244990227</v>
+        <v>0.12315994143760818</v>
       </c>
       <c r="E146">
-        <v>0.67660731903319393</v>
+        <v>0.16820485542500924</v>
       </c>
       <c r="F146">
-        <v>0.79381478150461238</v>
+        <v>0.18289959403594941</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B147">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C147">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D147">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E147">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F147">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B148">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C148">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D148">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E148">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F148">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="149">
@@ -2988,62 +2988,62 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.96576238249845381</v>
+        <v>0.99268916465800072</v>
       </c>
       <c r="B151">
-        <v>0.98944062118437126</v>
+        <v>0.99736013386003786</v>
       </c>
       <c r="C151">
-        <v>0.97691267315060415</v>
+        <v>0.99514477506230059</v>
       </c>
       <c r="D151">
-        <v>0.034237617501546073</v>
+        <v>0.0073108353419992665</v>
       </c>
       <c r="E151">
-        <v>0.010559378815628816</v>
+        <v>0.0026398661399621385</v>
       </c>
       <c r="F151">
-        <v>0.023087326849395816</v>
+        <v>0.0048552249376994597</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.011941347118103698</v>
+        <v>0.0025736618713367004</v>
       </c>
       <c r="B152">
-        <v>0.0040215895176744423</v>
+        <v>0.0010062977871613634</v>
       </c>
       <c r="C152">
-        <v>0.0093118166282528461</v>
+        <v>0.0019939943100786826</v>
       </c>
       <c r="D152">
-        <v>0.011941347118103698</v>
+        <v>0.0025736618713367004</v>
       </c>
       <c r="E152">
-        <v>0.0040215895176744423</v>
+        <v>0.0010062977871613634</v>
       </c>
       <c r="F152">
-        <v>0.0093118166282528461</v>
+        <v>0.0019939943100786826</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>80.87549695580897</v>
+        <v>385.71079430198068</v>
       </c>
       <c r="B153">
-        <v>246.03222602304112</v>
+        <v>991.1182818690902</v>
       </c>
       <c r="C153">
-        <v>104.91107290349423</v>
+        <v>499.07102042985889</v>
       </c>
       <c r="D153">
-        <v>2.867148669486383</v>
+        <v>2.8406355253661149</v>
       </c>
       <c r="E153">
-        <v>2.6256729507627545</v>
+        <v>2.6233448723055042</v>
       </c>
       <c r="F153">
-        <v>2.4793579782646167</v>
+        <v>2.4349241686190535</v>
       </c>
     </row>
     <row r="154">
@@ -3057,93 +3057,93 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>0.0042215462056355412</v>
+        <v>0.0045198783283769669</v>
       </c>
       <c r="E154">
-        <v>0.0087688003802291643</v>
+        <v>0.0087325372831504045</v>
       </c>
       <c r="F154">
-        <v>0.013312089442470665</v>
+        <v>0.014928318535789197</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.94233177873650642</v>
+        <v>0.98764370546742397</v>
       </c>
       <c r="B155">
-        <v>0.98154969652152679</v>
+        <v>0.99538736716708709</v>
       </c>
       <c r="C155">
-        <v>0.95864157830991148</v>
+        <v>0.99123570797396587</v>
       </c>
       <c r="D155">
-        <v>0.010807013739598706</v>
+        <v>0.0022653761514224878</v>
       </c>
       <c r="E155">
-        <v>0.0026684541527843726</v>
+        <v>0.00066709944701137495</v>
       </c>
       <c r="F155">
-        <v>0.0048162320087031113</v>
+        <v>0.00094615784936472047</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.9891929862604012</v>
+        <v>0.99773462384857747</v>
       </c>
       <c r="B156">
-        <v>0.99733154584721573</v>
+        <v>0.99933290055298862</v>
       </c>
       <c r="C156">
-        <v>0.99518376799129682</v>
+        <v>0.99905384215063531</v>
       </c>
       <c r="D156">
-        <v>0.057668221263493441</v>
+        <v>0.012356294532576046</v>
       </c>
       <c r="E156">
-        <v>0.018450303478473259</v>
+        <v>0.004612632832912902</v>
       </c>
       <c r="F156">
-        <v>0.04135842169008852</v>
+        <v>0.008764292026034199</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B157">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C157">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D157">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E157">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F157">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B158">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C158">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D158">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E158">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F158">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="159">
@@ -3168,162 +3168,162 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.89069437229437232</v>
+        <v>0.97633023367601712</v>
       </c>
       <c r="B161">
-        <v>0.86262357295482273</v>
+        <v>0.96628808077957551</v>
       </c>
       <c r="C161">
-        <v>0.90790221043324482</v>
+        <v>0.98106717052306247</v>
       </c>
       <c r="D161">
-        <v>0.10930562770562771</v>
+        <v>0.023669766323982981</v>
       </c>
       <c r="E161">
-        <v>0.13737642704517705</v>
+        <v>0.033711919220424491</v>
       </c>
       <c r="F161">
-        <v>0.092097789566755087</v>
+        <v>0.018932829476937651</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.020190353247044303</v>
+        <v>0.004576693134871938</v>
       </c>
       <c r="B162">
-        <v>0.01396665742667141</v>
+        <v>0.0035930359614911814</v>
       </c>
       <c r="C162">
-        <v>0.017707859335221281</v>
+        <v>0.0038547152080992864</v>
       </c>
       <c r="D162">
-        <v>0.020190353247044303</v>
+        <v>0.004576693134871938</v>
       </c>
       <c r="E162">
-        <v>0.01396665742667141</v>
+        <v>0.0035930359614911814</v>
       </c>
       <c r="F162">
-        <v>0.017707859335221281</v>
+        <v>0.0038547152080992864</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>44.11484838308921</v>
+        <v>213.32656678178975</v>
       </c>
       <c r="B163">
-        <v>61.763065177464341</v>
+        <v>268.93359574907976</v>
       </c>
       <c r="C163">
-        <v>51.271144255557161</v>
+        <v>254.51093467597957</v>
       </c>
       <c r="D163">
-        <v>5.4137550922557107</v>
+        <v>5.1718054119976067</v>
       </c>
       <c r="E163">
-        <v>9.8360275367559549</v>
+        <v>9.3825721706479595</v>
       </c>
       <c r="F163">
-        <v>5.200955565734068</v>
+        <v>4.9116026618924202</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>8.4979562650017191e-245</v>
+        <v>0</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="C164">
-        <v>7.5324418967331916e-293</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>7.5869077534348383e-08</v>
+        <v>2.4053700873200127e-07</v>
       </c>
       <c r="E164">
-        <v>6.2301578260575749e-22</v>
+        <v>9.384983077148785e-21</v>
       </c>
       <c r="F164">
-        <v>2.3666054280722352e-07</v>
+        <v>9.310252483251578e-07</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.85107805747943488</v>
+        <v>0.9673579911693525</v>
       </c>
       <c r="B165">
-        <v>0.83521902530985281</v>
+        <v>0.95924421984513075</v>
       </c>
       <c r="C165">
-        <v>0.87315689807842245</v>
+        <v>0.97351030825985485</v>
       </c>
       <c r="D165">
-        <v>0.069689312890690233</v>
+        <v>0.014697523817318316</v>
       </c>
       <c r="E165">
-        <v>0.10997187940020711</v>
+        <v>0.026668058285979741</v>
       </c>
       <c r="F165">
-        <v>0.057352477211932748</v>
+        <v>0.011375967213730027</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.93031068710930975</v>
+        <v>0.98530247618268174</v>
       </c>
       <c r="B166">
-        <v>0.89002812059979264</v>
+        <v>0.97333194171402027</v>
       </c>
       <c r="C166">
-        <v>0.94264752278806718</v>
+        <v>0.98862403278627009</v>
       </c>
       <c r="D166">
-        <v>0.14892194252056518</v>
+        <v>0.032642008830647648</v>
       </c>
       <c r="E166">
-        <v>0.16478097469014699</v>
+        <v>0.040755780154869241</v>
       </c>
       <c r="F166">
-        <v>0.12684310192157744</v>
+        <v>0.026489691740145274</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B167">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C167">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D167">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E167">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F167">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B168">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C168">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D168">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E168">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F168">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="169">
@@ -3348,306 +3348,306 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.7653099722222223</v>
+        <v>0.94225541173902505</v>
       </c>
       <c r="B171">
-        <v>0.76968378487144595</v>
+        <v>0.96313194985419526</v>
       </c>
       <c r="C171">
-        <v>0.77183389740350961</v>
+        <v>0.95553283291792201</v>
       </c>
       <c r="D171">
-        <v>0.76482936975706139</v>
+        <v>0.93702534609454757</v>
       </c>
       <c r="E171">
-        <v>0.78297853266531481</v>
+        <v>0.93068569595177464</v>
       </c>
       <c r="F171">
-        <v>0.79926329949446306</v>
+        <v>0.91317261388933491</v>
       </c>
       <c r="G171">
-        <v>0.23469002777777778</v>
+        <v>0.057744588260974929</v>
       </c>
       <c r="H171">
-        <v>0.23031621512855413</v>
+        <v>0.036868050145804868</v>
       </c>
       <c r="I171">
-        <v>0.22816610259649034</v>
+        <v>0.044467167082077985</v>
       </c>
       <c r="J171">
-        <v>0.23517063024293855</v>
+        <v>0.06297465390545251</v>
       </c>
       <c r="K171">
-        <v>0.21702146733468516</v>
+        <v>0.069314304048225292</v>
       </c>
       <c r="L171">
-        <v>0.20073670050553699</v>
+        <v>0.086827386110665206</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.090266808245214686</v>
+        <v>0.025193176454224111</v>
       </c>
       <c r="B172">
-        <v>0.029652507730150657</v>
+        <v>0.0052820011385762092</v>
       </c>
       <c r="C172">
-        <v>0.023777989682870183</v>
+        <v>0.0051164606971159741</v>
       </c>
       <c r="D172">
-        <v>0.025644915870223033</v>
+        <v>0.0075591511028766578</v>
       </c>
       <c r="E172">
-        <v>0.035023185758693967</v>
+        <v>0.012063656930598507</v>
       </c>
       <c r="F172">
-        <v>0.044154551910703679</v>
+        <v>0.016924209993909842</v>
       </c>
       <c r="G172">
-        <v>0.090266808245214686</v>
+        <v>0.025193176454224111</v>
       </c>
       <c r="H172">
-        <v>0.029652507730150657</v>
+        <v>0.0052820011385762084</v>
       </c>
       <c r="I172">
-        <v>0.02377798968287018</v>
+        <v>0.0051164606971159767</v>
       </c>
       <c r="J172">
-        <v>0.025644915870223033</v>
+        <v>0.0075591511028766621</v>
       </c>
       <c r="K172">
-        <v>0.035023185758693974</v>
+        <v>0.012063656930598507</v>
       </c>
       <c r="L172">
-        <v>0.044154551910703693</v>
+        <v>0.016924209993909842</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>8.4783098804514747</v>
+        <v>37.401215104855829</v>
       </c>
       <c r="B173">
-        <v>25.956785573613789</v>
+        <v>182.3422457863787</v>
       </c>
       <c r="C173">
-        <v>32.460014816119788</v>
+        <v>186.75660568574932</v>
       </c>
       <c r="D173">
-        <v>29.823820582118746</v>
+        <v>123.95907071337147</v>
       </c>
       <c r="E173">
-        <v>22.356005477627129</v>
+        <v>77.147891498071729</v>
       </c>
       <c r="F173">
-        <v>18.101492709310236</v>
+        <v>53.956587292283601</v>
       </c>
       <c r="G173">
-        <v>2.5999593022080671</v>
+        <v>2.2920725524983556</v>
       </c>
       <c r="H173">
-        <v>7.7671749460288888</v>
+        <v>6.9799398331335549</v>
       </c>
       <c r="I173">
-        <v>9.5956851541937844</v>
+        <v>8.6910014000777984</v>
       </c>
       <c r="J173">
-        <v>9.170263276862654</v>
+        <v>8.3309161370629674</v>
       </c>
       <c r="K173">
-        <v>6.1965084738418712</v>
+        <v>5.7457124690287795</v>
       </c>
       <c r="L173">
-        <v>4.5462289122874227</v>
+        <v>5.1303656798107529</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>9.476544493461083e-17</v>
+        <v>7.4428107190434354e-270</v>
       </c>
       <c r="B174">
-        <v>3.3598701317510759e-115</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>9.6152142921279128e-161</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>1.49658935882018e-142</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>1.1017027461603146e-88</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>8.740211211216227e-57</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.0094786976705778531</v>
+        <v>0.021943251164831919</v>
       </c>
       <c r="H174">
-        <v>1.8984295695699097e-14</v>
+        <v>3.3617852907634542e-12</v>
       </c>
       <c r="I174">
-        <v>5.8279129069167443e-21</v>
+        <v>4.986780225253386e-18</v>
       </c>
       <c r="J174">
-        <v>2.3757521489241972e-19</v>
+        <v>1.1581345136871045e-16</v>
       </c>
       <c r="K174">
-        <v>8.7154214842643616e-10</v>
+        <v>9.8047565159710735e-09</v>
       </c>
       <c r="L174">
-        <v>6.8471265929164193e-06</v>
+        <v>3.106780588649745e-07</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.58814823716425058</v>
+        <v>0.8928656120472116</v>
       </c>
       <c r="B175">
-        <v>0.71149898796822997</v>
+        <v>0.95277676908296793</v>
       </c>
       <c r="C175">
-        <v>0.72517625813906983</v>
+        <v>0.94550200377916771</v>
       </c>
       <c r="D175">
-        <v>0.71450903077636441</v>
+        <v>0.92220429088262812</v>
       </c>
       <c r="E175">
-        <v>0.71424349845179602</v>
+        <v>0.90703451379661315</v>
       </c>
       <c r="F175">
-        <v>0.71251356719932335</v>
+        <v>0.87998619632654329</v>
       </c>
       <c r="G175">
-        <v>0.057528292719806057</v>
+        <v>0.0083547885691614213</v>
       </c>
       <c r="H175">
-        <v>0.17213141822533812</v>
+        <v>0.026512869374577516</v>
       </c>
       <c r="I175">
-        <v>0.18150846333205056</v>
+        <v>0.03443633794332368</v>
       </c>
       <c r="J175">
-        <v>0.18485029126224162</v>
+        <v>0.048153598693533098</v>
       </c>
       <c r="K175">
-        <v>0.14828643312116641</v>
+        <v>0.045663121893063818</v>
       </c>
       <c r="L175">
-        <v>0.11398696821039725</v>
+        <v>0.05364096854787357</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.94247170728019403</v>
+        <v>0.9916452114308385</v>
       </c>
       <c r="B176">
-        <v>0.82786858177466194</v>
+        <v>0.97348713062542258</v>
       </c>
       <c r="C176">
-        <v>0.81849153666794938</v>
+        <v>0.96556366205667632</v>
       </c>
       <c r="D176">
-        <v>0.81514970873775838</v>
+        <v>0.95184640130646703</v>
       </c>
       <c r="E176">
-        <v>0.85171356687883359</v>
+        <v>0.95433687810693613</v>
       </c>
       <c r="F176">
-        <v>0.88601303178960278</v>
+        <v>0.94635903145212652</v>
       </c>
       <c r="G176">
-        <v>0.41185176283574954</v>
+        <v>0.10713438795278843</v>
       </c>
       <c r="H176">
-        <v>0.28850101203177014</v>
+        <v>0.047223230917032219</v>
       </c>
       <c r="I176">
-        <v>0.27482374186093012</v>
+        <v>0.05449799622083229</v>
       </c>
       <c r="J176">
-        <v>0.28549096922363548</v>
+        <v>0.077795709117371922</v>
       </c>
       <c r="K176">
-        <v>0.28575650154820392</v>
+        <v>0.092965486203386766</v>
       </c>
       <c r="L176">
-        <v>0.28748643280067676</v>
+        <v>0.12001380367345685</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>885.90132536294311</v>
+        <v>4948.1420142265279</v>
       </c>
       <c r="B177">
-        <v>1051.8855872945178</v>
+        <v>4731.8094531724546</v>
       </c>
       <c r="C177">
-        <v>1052.8709255477588</v>
+        <v>4414.1616184568411</v>
       </c>
       <c r="D177">
-        <v>1064.2571965205193</v>
+        <v>3327.3574089909189</v>
       </c>
       <c r="E177">
-        <v>915.69818846888757</v>
+        <v>4179.6186887628637</v>
       </c>
       <c r="F177">
-        <v>503.80990599136635</v>
+        <v>2578.8787198237342</v>
       </c>
       <c r="G177">
-        <v>885.90132536294311</v>
+        <v>4948.1420142265297</v>
       </c>
       <c r="H177">
-        <v>1051.8855872945171</v>
+        <v>4731.809453172471</v>
       </c>
       <c r="I177">
-        <v>1052.8709255477602</v>
+        <v>4414.1616184567501</v>
       </c>
       <c r="J177">
-        <v>1064.2571965205188</v>
+        <v>3327.3574089908311</v>
       </c>
       <c r="K177">
-        <v>915.69818846888643</v>
+        <v>4179.6186887628592</v>
       </c>
       <c r="L177">
-        <v>503.80990599136368</v>
+        <v>2578.8787198237637</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.9626453898392227</v>
+        <v>1.9604435265062568</v>
       </c>
       <c r="B178">
-        <v>1.9622217936074837</v>
+        <v>1.9604654560939085</v>
       </c>
       <c r="C178">
-        <v>1.9622196782284016</v>
+        <v>1.9605015522563154</v>
       </c>
       <c r="D178">
-        <v>1.9621955180256672</v>
+        <v>1.9606771990943805</v>
       </c>
       <c r="E178">
-        <v>1.9625580233361932</v>
+        <v>1.9605317269237097</v>
       </c>
       <c r="F178">
-        <v>1.9646837877684444</v>
+        <v>1.9608842938449551</v>
       </c>
       <c r="G178">
-        <v>1.9626453898392227</v>
+        <v>1.9604435265062568</v>
       </c>
       <c r="H178">
-        <v>1.9622217936074837</v>
+        <v>1.9604654560939085</v>
       </c>
       <c r="I178">
-        <v>1.9622196782284016</v>
+        <v>1.9605015522563154</v>
       </c>
       <c r="J178">
-        <v>1.9621955180256672</v>
+        <v>1.9606771990943805</v>
       </c>
       <c r="K178">
-        <v>1.9625580233361932</v>
+        <v>1.9605317269237097</v>
       </c>
       <c r="L178">
-        <v>1.9646837877684444</v>
+        <v>1.9608842938449551</v>
       </c>
     </row>
     <row r="179">
@@ -3690,306 +3690,306 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.43742430555555556</v>
+        <v>0.86271979009558097</v>
       </c>
       <c r="B181">
-        <v>0.3878689357926221</v>
+        <v>0.90127183707344205</v>
       </c>
       <c r="C181">
-        <v>0.36174022535875894</v>
+        <v>0.87380505879344672</v>
       </c>
       <c r="D181">
-        <v>0.36176287535849938</v>
+        <v>0.83391543576776361</v>
       </c>
       <c r="E181">
-        <v>0.38622176303975164</v>
+        <v>0.80175064866438339</v>
       </c>
       <c r="F181">
-        <v>0.32073640887765886</v>
+        <v>0.7135322100008693</v>
       </c>
       <c r="G181">
-        <v>0.56257569444444444</v>
+        <v>0.13728020990441892</v>
       </c>
       <c r="H181">
-        <v>0.61213106420737784</v>
+        <v>0.098728162926557936</v>
       </c>
       <c r="I181">
-        <v>0.63825977464124095</v>
+        <v>0.12619494120655322</v>
       </c>
       <c r="J181">
-        <v>0.63823712464150062</v>
+        <v>0.16608456423223653</v>
       </c>
       <c r="K181">
-        <v>0.61377823696024836</v>
+        <v>0.19824935133561655</v>
       </c>
       <c r="L181">
-        <v>0.67926359112234114</v>
+        <v>0.2864677899991307</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.10785687579395663</v>
+        <v>0.037220281362561017</v>
       </c>
       <c r="B182">
-        <v>0.034049850739278083</v>
+        <v>0.0081986489819593465</v>
       </c>
       <c r="C182">
-        <v>0.027557659921058714</v>
+        <v>0.0079236980805988521</v>
       </c>
       <c r="D182">
-        <v>0.028970693064683455</v>
+        <v>0.011066794024685854</v>
       </c>
       <c r="E182">
-        <v>0.040613191762401676</v>
+        <v>0.017672570797057086</v>
       </c>
       <c r="F182">
-        <v>0.0530151637811382</v>
+        <v>0.027112428986525845</v>
       </c>
       <c r="G182">
-        <v>0.10785687579395663</v>
+        <v>0.037220281362561017</v>
       </c>
       <c r="H182">
-        <v>0.034049850739278083</v>
+        <v>0.0081986489819593483</v>
       </c>
       <c r="I182">
-        <v>0.027557659921058717</v>
+        <v>0.0079236980805988521</v>
       </c>
       <c r="J182">
-        <v>0.028970693064683455</v>
+        <v>0.011066794024685848</v>
       </c>
       <c r="K182">
-        <v>0.040613191762401676</v>
+        <v>0.017672570797057082</v>
       </c>
       <c r="L182">
-        <v>0.053015163781138186</v>
+        <v>0.027112428986525848</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>4.0555996299316606</v>
+        <v>23.178755197787677</v>
       </c>
       <c r="B183">
-        <v>11.39120810727071</v>
+        <v>109.9293114093113</v>
       </c>
       <c r="C183">
-        <v>13.126667010007196</v>
+        <v>110.27742979417091</v>
       </c>
       <c r="D183">
-        <v>12.487201274432202</v>
+        <v>75.352937256048321</v>
       </c>
       <c r="E183">
-        <v>9.5097613922898496</v>
+        <v>45.366950732368515</v>
       </c>
       <c r="F183">
-        <v>6.0498994250352736</v>
+        <v>26.317531725227415</v>
       </c>
       <c r="G183">
-        <v>5.2159465059896197</v>
+        <v>3.6883173602901822</v>
       </c>
       <c r="H183">
-        <v>17.977496256723857</v>
+        <v>12.042003889153388</v>
       </c>
       <c r="I183">
-        <v>23.160884359179658</v>
+        <v>15.926268255417392</v>
       </c>
       <c r="J183">
-        <v>22.030440321758807</v>
+        <v>15.007468636514281</v>
       </c>
       <c r="K183">
-        <v>15.11278011713582</v>
+        <v>11.217912414227246</v>
       </c>
       <c r="L183">
-        <v>12.812628362830987</v>
+        <v>10.565921265907143</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>5.3647422456522336e-05</v>
+        <v>5.6333430345421381e-108</v>
       </c>
       <c r="B184">
-        <v>2.1594682518827906e-28</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>4.2771689550734417e-36</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>1.7156970698233103e-33</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>1.3620129194575214e-20</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>3.1653631438493332e-09</v>
+        <v>5.344522461191961e-136</v>
       </c>
       <c r="G184">
-        <v>2.1962585089932058e-07</v>
+        <v>0.00023047820294471322</v>
       </c>
       <c r="H184">
-        <v>4.9089427728421834e-63</v>
+        <v>6.5874923719183515e-33</v>
       </c>
       <c r="I184">
-        <v>3.7199430820525457e-93</v>
+        <v>1.2104699860543171e-55</v>
       </c>
       <c r="J184">
-        <v>6.4566998932785374e-89</v>
+        <v>9.7842167522409723e-50</v>
       </c>
       <c r="K184">
-        <v>1.1931721552716608e-46</v>
+        <v>8.67959434384482e-29</v>
       </c>
       <c r="L184">
-        <v>4.8813106316860048e-32</v>
+        <v>1.353195226929683e-25</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.22578844550099045</v>
+        <v>0.78973459367325261</v>
       </c>
       <c r="B185">
-        <v>0.32105368887150509</v>
+        <v>0.88519858557157838</v>
       </c>
       <c r="C185">
-        <v>0.30765427737694395</v>
+        <v>0.85827084637793416</v>
       </c>
       <c r="D185">
-        <v>0.30491671505770446</v>
+        <v>0.812219190882146</v>
       </c>
       <c r="E185">
-        <v>0.30652534062152553</v>
+        <v>0.76710285575615011</v>
       </c>
       <c r="F185">
-        <v>0.21653392418628409</v>
+        <v>0.66036886378224291</v>
       </c>
       <c r="G185">
-        <v>0.3509398343898793</v>
+        <v>0.064295013482090588</v>
       </c>
       <c r="H185">
-        <v>0.54531581728626088</v>
+        <v>0.08265491142469425</v>
       </c>
       <c r="I185">
-        <v>0.58417382665942597</v>
+        <v>0.11066072879104068</v>
       </c>
       <c r="J185">
-        <v>0.5813909643407057</v>
+        <v>0.14438831934661894</v>
       </c>
       <c r="K185">
-        <v>0.53408181454202219</v>
+        <v>0.16360155842738328</v>
       </c>
       <c r="L185">
-        <v>0.57506110643096642</v>
+        <v>0.23330444378050436</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.6490601656101207</v>
+        <v>0.93570498651790934</v>
       </c>
       <c r="B186">
-        <v>0.45468418271373912</v>
+        <v>0.91734508857530572</v>
       </c>
       <c r="C186">
-        <v>0.41582617334057392</v>
+        <v>0.88933927120895928</v>
       </c>
       <c r="D186">
-        <v>0.4186090356592943</v>
+        <v>0.85561168065338122</v>
       </c>
       <c r="E186">
-        <v>0.46591818545797775</v>
+        <v>0.83639844157261667</v>
       </c>
       <c r="F186">
-        <v>0.42493889356903364</v>
+        <v>0.7666955562194957</v>
       </c>
       <c r="G186">
-        <v>0.77421155449900958</v>
+        <v>0.21026540632674723</v>
       </c>
       <c r="H186">
-        <v>0.67894631112849479</v>
+        <v>0.11480141442842162</v>
       </c>
       <c r="I186">
-        <v>0.69234572262305594</v>
+        <v>0.14172915362206578</v>
       </c>
       <c r="J186">
-        <v>0.69508328494229554</v>
+        <v>0.18778080911785411</v>
       </c>
       <c r="K186">
-        <v>0.69347465937847452</v>
+        <v>0.23289714424384983</v>
       </c>
       <c r="L186">
-        <v>0.78346607581371586</v>
+        <v>0.33963113621775703</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1066.1075996740233</v>
+        <v>2539.5091018673879</v>
       </c>
       <c r="B187">
-        <v>1026.7041903016375</v>
+        <v>4637.7715438196483</v>
       </c>
       <c r="C187">
-        <v>885.49703176131982</v>
+        <v>4642.9761554498691</v>
       </c>
       <c r="D187">
-        <v>1064.3194365668951</v>
+        <v>4585.203063372056</v>
       </c>
       <c r="E187">
-        <v>1004.4826100405534</v>
+        <v>4115.1771621582848</v>
       </c>
       <c r="F187">
-        <v>427.98862905454257</v>
+        <v>2685.3721095931378</v>
       </c>
       <c r="G187">
-        <v>1066.1075996740235</v>
+        <v>2539.5091018673761</v>
       </c>
       <c r="H187">
-        <v>1026.7041903016363</v>
+        <v>4637.7715438196292</v>
       </c>
       <c r="I187">
-        <v>885.49703176131618</v>
+        <v>4642.9761554498627</v>
       </c>
       <c r="J187">
-        <v>1064.3194365668955</v>
+        <v>4585.2030633721315</v>
       </c>
       <c r="K187">
-        <v>1004.4826100405538</v>
+        <v>4115.1771621582975</v>
       </c>
       <c r="L187">
-        <v>427.98862905454445</v>
+        <v>2685.3721095931205</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.9621916405112798</v>
+        <v>1.9608985679442601</v>
       </c>
       <c r="B188">
-        <v>1.9622772338335841</v>
+        <v>1.9604756268053367</v>
       </c>
       <c r="C188">
-        <v>1.9626466157412796</v>
+        <v>1.9604750531255113</v>
       </c>
       <c r="D188">
-        <v>1.9621953873824605</v>
+        <v>1.9604814942088413</v>
       </c>
       <c r="E188">
-        <v>1.9623284691454954</v>
+        <v>1.9605406200439708</v>
       </c>
       <c r="F188">
-        <v>1.9655222630557652</v>
+        <v>1.960847781106116</v>
       </c>
       <c r="G188">
-        <v>1.9621916405112798</v>
+        <v>1.9608985679442601</v>
       </c>
       <c r="H188">
-        <v>1.9622772338335841</v>
+        <v>1.9604756268053367</v>
       </c>
       <c r="I188">
-        <v>1.9626466157412796</v>
+        <v>1.9604750531255113</v>
       </c>
       <c r="J188">
-        <v>1.9621953873824605</v>
+        <v>1.9604814942088413</v>
       </c>
       <c r="K188">
-        <v>1.9623284691454954</v>
+        <v>1.9605406200439708</v>
       </c>
       <c r="L188">
-        <v>1.9655222630557652</v>
+        <v>1.960847781106116</v>
       </c>
     </row>
     <row r="189">
@@ -4035,37 +4035,37 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>0.97084877849069751</v>
+        <v>0.99596073467979751</v>
       </c>
       <c r="C191">
-        <v>0.97266932540689111</v>
+        <v>0.99474563297590068</v>
       </c>
       <c r="D191">
-        <v>0.98922997838326565</v>
+        <v>0.99652602029140613</v>
       </c>
       <c r="E191">
-        <v>0.9882365343688374</v>
+        <v>0.9957185799702456</v>
       </c>
       <c r="F191">
-        <v>0.99465713849459336</v>
+        <v>0.99740039388123769</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0.029151221509302626</v>
+        <v>0.0040392653202024117</v>
       </c>
       <c r="I191">
-        <v>0.027330674593108888</v>
+        <v>0.0052543670240994128</v>
       </c>
       <c r="J191">
-        <v>0.010770021616734344</v>
+        <v>0.0034739797085938675</v>
       </c>
       <c r="K191">
-        <v>0.011763465631162547</v>
+        <v>0.0042814200297544543</v>
       </c>
       <c r="L191">
-        <v>0.0053428615054066427</v>
+        <v>0.0025996061187622487</v>
       </c>
     </row>
     <row r="192">
@@ -4073,75 +4073,75 @@
         <v>0</v>
       </c>
       <c r="B192">
-        <v>0.012801031976284119</v>
+        <v>0.0017910383052381676</v>
       </c>
       <c r="C192">
-        <v>0.0094833073311969152</v>
+        <v>0.0018501547996428796</v>
       </c>
       <c r="D192">
-        <v>0.0060936798076702079</v>
+        <v>0.0019091564746889524</v>
       </c>
       <c r="E192">
-        <v>0.0085814862902185447</v>
+        <v>0.003021252622242948</v>
       </c>
       <c r="F192">
-        <v>0.0052980067533661725</v>
+        <v>0.0025881438053681361</v>
       </c>
       <c r="G192"/>
       <c r="H192">
-        <v>0.012801031976284133</v>
+        <v>0.0017910383052381726</v>
       </c>
       <c r="I192">
-        <v>0.0094833073311969135</v>
+        <v>0.0018501547996428685</v>
       </c>
       <c r="J192">
-        <v>0.0060936798076702157</v>
+        <v>0.0019091564746889574</v>
       </c>
       <c r="K192">
-        <v>0.0085814862902185447</v>
+        <v>0.0030212526222429424</v>
       </c>
       <c r="L192">
-        <v>0.0052980067533661915</v>
+        <v>0.0025881438053681361</v>
       </c>
     </row>
     <row r="193">
       <c r="A193"/>
       <c r="B193">
-        <v>75.841446243501636</v>
+        <v>556.08008592946157</v>
       </c>
       <c r="C193">
-        <v>102.56646668057817</v>
+        <v>537.65535357793215</v>
       </c>
       <c r="D193">
-        <v>162.33704585825248</v>
+        <v>521.97189361011613</v>
       </c>
       <c r="E193">
-        <v>115.15913455402956</v>
+        <v>329.57144087839765</v>
       </c>
       <c r="F193">
-        <v>187.74176493123989</v>
+        <v>385.37286522198019</v>
       </c>
       <c r="G193"/>
       <c r="H193">
-        <v>2.2772555809023616</v>
+        <v>2.255264618511478</v>
       </c>
       <c r="I193">
-        <v>2.8819771034099144</v>
+        <v>2.8399607563181481</v>
       </c>
       <c r="J193">
-        <v>1.7674085210676707</v>
+        <v>1.8196411633362077</v>
       </c>
       <c r="K193">
-        <v>1.370795831087084</v>
+        <v>1.4171009727005146</v>
       </c>
       <c r="L193">
-        <v>1.0084663448214655</v>
+        <v>1.0044287776321927</v>
       </c>
     </row>
     <row r="194">
       <c r="A194"/>
       <c r="B194">
-        <v>5.3660003386540178e-194</v>
+        <v>0</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -4157,161 +4157,161 @@
       </c>
       <c r="G194"/>
       <c r="H194">
-        <v>0.023495048100854128</v>
+        <v>0.02426774383714303</v>
       </c>
       <c r="I194">
-        <v>0.0040963979533242805</v>
+        <v>0.0045655144244961645</v>
       </c>
       <c r="J194">
-        <v>0.077662346358802634</v>
+        <v>0.069299107963141426</v>
       </c>
       <c r="K194">
-        <v>0.17072063510757809</v>
+        <v>0.15656961617603743</v>
       </c>
       <c r="L194">
-        <v>0.31368350908478065</v>
+        <v>0.31543955299118104</v>
       </c>
     </row>
     <row r="195">
       <c r="A195"/>
       <c r="B195">
-        <v>0.94565465284541372</v>
+        <v>0.99244738344002903</v>
       </c>
       <c r="C195">
-        <v>0.9540439920438426</v>
+        <v>0.99111681734214063</v>
       </c>
       <c r="D195">
-        <v>0.97726271771903517</v>
+        <v>0.99277677287655131</v>
       </c>
       <c r="E195">
-        <v>0.97139844428279687</v>
+        <v>0.98979435876527622</v>
       </c>
       <c r="F195">
-        <v>0.98424984732371101</v>
+        <v>0.99232095507998686</v>
       </c>
       <c r="G195"/>
       <c r="H195">
-        <v>0.0039570958640188711</v>
+        <v>0.00052591408043388367</v>
       </c>
       <c r="I195">
-        <v>0.0087053412300603407</v>
+        <v>0.0016255513903393505</v>
       </c>
       <c r="J195">
-        <v>-0.001197239047496107</v>
+        <v>-0.00027526770626092479</v>
       </c>
       <c r="K195">
-        <v>-0.0050746244548779858</v>
+        <v>-0.0016428011752149174</v>
       </c>
       <c r="L195">
-        <v>-0.0050644296654757462</v>
+        <v>-0.0024798326824885656</v>
       </c>
     </row>
     <row r="196">
       <c r="A196"/>
       <c r="B196">
-        <v>0.99604290413598129</v>
+        <v>0.99947408591956599</v>
       </c>
       <c r="C196">
-        <v>0.99129465876993961</v>
+        <v>0.99837444860966074</v>
       </c>
       <c r="D196">
-        <v>1.0011972390474961</v>
+        <v>1.000275267706261</v>
       </c>
       <c r="E196">
-        <v>1.0050746244548778</v>
+        <v>1.001642801175215</v>
       </c>
       <c r="F196">
-        <v>1.0050644296654758</v>
+        <v>1.0024798326824884</v>
       </c>
       <c r="G196"/>
       <c r="H196">
-        <v>0.054345347154586381</v>
+        <v>0.0075526165599709393</v>
       </c>
       <c r="I196">
-        <v>0.045956007956157438</v>
+        <v>0.0088831826578594751</v>
       </c>
       <c r="J196">
-        <v>0.022737282280964794</v>
+        <v>0.0072232271234486597</v>
       </c>
       <c r="K196">
-        <v>0.028601555717203079</v>
+        <v>0.010205641234723825</v>
       </c>
       <c r="L196">
-        <v>0.015750152676289032</v>
+        <v>0.0076790449200130634</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B197">
-        <v>291.60901746421581</v>
+        <v>1426.6521252199968</v>
       </c>
       <c r="C197">
-        <v>587.16183464470271</v>
+        <v>1703.1307256686289</v>
       </c>
       <c r="D197">
-        <v>606.855319045035</v>
+        <v>615.75563294374797</v>
       </c>
       <c r="E197">
-        <v>1090.6461591797308</v>
+        <v>2680.6512603098895</v>
       </c>
       <c r="F197">
-        <v>538.55485764226876</v>
+        <v>908.07829045728533</v>
       </c>
       <c r="G197"/>
       <c r="H197">
-        <v>291.60901746421069</v>
+        <v>1426.6521252198404</v>
       </c>
       <c r="I197">
-        <v>587.16183464470453</v>
+        <v>1703.1307256690666</v>
       </c>
       <c r="J197">
-        <v>606.85531904501852</v>
+        <v>615.75563294370352</v>
       </c>
       <c r="K197">
-        <v>1090.6461591797308</v>
+        <v>2680.6512603101369</v>
       </c>
       <c r="L197">
-        <v>538.55485764222908</v>
+        <v>908.07829045728238</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B198">
-        <v>1.9681323890104894</v>
+        <v>1.9616281960543116</v>
       </c>
       <c r="C198">
-        <v>1.9640124180914629</v>
+        <v>1.9613578466301982</v>
       </c>
       <c r="D198">
-        <v>1.9638807817186359</v>
+        <v>1.9638240576721848</v>
       </c>
       <c r="E198">
-        <v>1.9621414655446261</v>
+        <v>1.9608493382361716</v>
       </c>
       <c r="F198">
-        <v>1.9643786154613552</v>
+        <v>1.9625798190639248</v>
       </c>
       <c r="G198">
         <v>1.9599639845400538</v>
       </c>
       <c r="H198">
-        <v>1.9681323890104894</v>
+        <v>1.9616281960543116</v>
       </c>
       <c r="I198">
-        <v>1.9640124180914629</v>
+        <v>1.9613578466301982</v>
       </c>
       <c r="J198">
-        <v>1.9638807817186359</v>
+        <v>1.9638240576721848</v>
       </c>
       <c r="K198">
-        <v>1.9621414655446261</v>
+        <v>1.9608493382361716</v>
       </c>
       <c r="L198">
-        <v>1.9643786154613552</v>
+        <v>1.9625798190639248</v>
       </c>
     </row>
     <row r="199">
@@ -4354,306 +4354,306 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.79726572222222214</v>
+        <v>0.94593119349168808</v>
       </c>
       <c r="B201">
-        <v>0.8715985008452346</v>
+        <v>0.98066326057250086</v>
       </c>
       <c r="C201">
-        <v>0.89375655183084035</v>
+        <v>0.97991933818235588</v>
       </c>
       <c r="D201">
-        <v>0.88417777650117346</v>
+        <v>0.96913465106439278</v>
       </c>
       <c r="E201">
-        <v>0.84256316992609614</v>
+        <v>0.94831704751216817</v>
       </c>
       <c r="F201">
-        <v>0.88534315313328471</v>
+        <v>0.94899678535689702</v>
       </c>
       <c r="G201">
-        <v>0.20273427777777778</v>
+        <v>0.05406880650831182</v>
       </c>
       <c r="H201">
-        <v>0.12840149915476534</v>
+        <v>0.019336739427499118</v>
       </c>
       <c r="I201">
-        <v>0.10624344816915973</v>
+        <v>0.020080661817644219</v>
       </c>
       <c r="J201">
-        <v>0.11582222349882647</v>
+        <v>0.030865348935607041</v>
       </c>
       <c r="K201">
-        <v>0.15743683007390391</v>
+        <v>0.051682952487831869</v>
       </c>
       <c r="L201">
-        <v>0.11465684686671525</v>
+        <v>0.051003214643103013</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.08905643674959271</v>
+        <v>0.026803324752877413</v>
       </c>
       <c r="B202">
-        <v>0.023580262159880506</v>
+        <v>0.0039645070271468229</v>
       </c>
       <c r="C202">
-        <v>0.017890811169813902</v>
+        <v>0.0035084537796499699</v>
       </c>
       <c r="D202">
-        <v>0.019554966029629278</v>
+        <v>0.0054249536427807016</v>
       </c>
       <c r="E202">
-        <v>0.030942048712497675</v>
+        <v>0.010500727494092582</v>
       </c>
       <c r="F202">
-        <v>0.036258936967694659</v>
+        <v>0.014187040906917693</v>
       </c>
       <c r="G202">
-        <v>0.08905643674959271</v>
+        <v>0.026803324752877403</v>
       </c>
       <c r="H202">
-        <v>0.023580262159880509</v>
+        <v>0.0039645070271468281</v>
       </c>
       <c r="I202">
-        <v>0.017890811169813899</v>
+        <v>0.0035084537796499699</v>
       </c>
       <c r="J202">
-        <v>0.019554966029629278</v>
+        <v>0.0054249536427806947</v>
       </c>
       <c r="K202">
-        <v>0.030942048712497672</v>
+        <v>0.010500727494092584</v>
       </c>
       <c r="L202">
-        <v>0.036258936967694659</v>
+        <v>0.014187040906917697</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>8.9523649420643174</v>
+        <v>35.291561857084154</v>
       </c>
       <c r="B203">
-        <v>36.963053885303005</v>
+        <v>247.3607068564751</v>
       </c>
       <c r="C203">
-        <v>49.956178249694034</v>
+        <v>279.30233650680162</v>
       </c>
       <c r="D203">
-        <v>45.214999359318021</v>
+        <v>178.64385852477764</v>
       </c>
       <c r="E203">
-        <v>27.230361433235672</v>
+        <v>90.309652168924956</v>
       </c>
       <c r="F203">
-        <v>24.417239642797359</v>
+        <v>66.891805809494784</v>
       </c>
       <c r="G203">
-        <v>2.2764696767267072</v>
+        <v>2.0172425252023034</v>
       </c>
       <c r="H203">
-        <v>5.4452956580452199</v>
+        <v>4.8774637792521105</v>
       </c>
       <c r="I203">
-        <v>5.9384366175871319</v>
+        <v>5.7235075844857271</v>
       </c>
       <c r="J203">
-        <v>5.922905891185648</v>
+        <v>5.6895138591057597</v>
       </c>
       <c r="K203">
-        <v>5.0881191331818396</v>
+        <v>4.9218449404488647</v>
       </c>
       <c r="L203">
-        <v>3.1621679082558365</v>
+        <v>3.5950565715387133</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1.8900838284165106e-18</v>
+        <v>7.4106153754711613e-103</v>
       </c>
       <c r="B204">
-        <v>2.8130927720791627e-190</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>2.0256035536965416e-245</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <v>3.0732378230124976e-247</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>1.0382523927174865e-122</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>2.0930585199680791e-88</v>
+        <v>0</v>
       </c>
       <c r="G204">
-        <v>0.023046982519450795</v>
+        <v>0.044664983098433482</v>
       </c>
       <c r="H204">
-        <v>6.4846549469111691e-08</v>
+        <v>1.2338315885144007e-06</v>
       </c>
       <c r="I204">
-        <v>4.3284027253477911e-09</v>
+        <v>1.1147738640031968e-08</v>
       </c>
       <c r="J204">
-        <v>4.301123306915811e-09</v>
+        <v>1.3963227400343034e-08</v>
       </c>
       <c r="K204">
-        <v>4.3149698712819076e-07</v>
+        <v>8.8627301781353432e-07</v>
       </c>
       <c r="L204">
-        <v>0.0016570177326993552</v>
+        <v>0.00033795897705225119</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.62248829974026076</v>
+        <v>0.89315983472897653</v>
       </c>
       <c r="B205">
-        <v>0.82532696800643024</v>
+        <v>0.97288435595580891</v>
       </c>
       <c r="C205">
-        <v>0.85863678722683168</v>
+        <v>0.97304095082486353</v>
       </c>
       <c r="D205">
-        <v>0.84580584966184591</v>
+        <v>0.95849766125094349</v>
       </c>
       <c r="E205">
-        <v>0.78184466502150496</v>
+        <v>0.92773076570292101</v>
       </c>
       <c r="F205">
-        <v>0.81411182413521488</v>
+        <v>0.92116162024412218</v>
       </c>
       <c r="G205">
-        <v>0.02795685529581643</v>
+        <v>0.0012974477456003317</v>
       </c>
       <c r="H205">
-        <v>0.082129966315960964</v>
+        <v>0.01155783481080714</v>
       </c>
       <c r="I205">
-        <v>0.0711236835651511</v>
+        <v>0.013202274460151852</v>
       </c>
       <c r="J205">
-        <v>0.077450296659498902</v>
+        <v>0.020228359122157782</v>
       </c>
       <c r="K205">
-        <v>0.096718325169312752</v>
+        <v>0.03109667067858472</v>
       </c>
       <c r="L205">
-        <v>0.043425517868645458</v>
+        <v>0.023168049530328128</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.97204314470418351</v>
+        <v>0.99870255225439963</v>
       </c>
       <c r="B206">
-        <v>0.91787003368403897</v>
+        <v>0.98844216518919281</v>
       </c>
       <c r="C206">
-        <v>0.92887631643484903</v>
+        <v>0.98679772553984824</v>
       </c>
       <c r="D206">
-        <v>0.92254970334050101</v>
+        <v>0.97977164087784208</v>
       </c>
       <c r="E206">
-        <v>0.90328167483068733</v>
+        <v>0.96890332932141532</v>
       </c>
       <c r="F206">
-        <v>0.95657448213135454</v>
+        <v>0.97683195046967186</v>
       </c>
       <c r="G206">
-        <v>0.37751170025973912</v>
+        <v>0.1068401652710233</v>
       </c>
       <c r="H206">
-        <v>0.17467303199356971</v>
+        <v>0.027115644044191096</v>
       </c>
       <c r="I206">
-        <v>0.14136321277316838</v>
+        <v>0.026959049175136585</v>
       </c>
       <c r="J206">
-        <v>0.15419415033815403</v>
+        <v>0.041502338749056303</v>
       </c>
       <c r="K206">
-        <v>0.21815533497849507</v>
+        <v>0.072269234297079016</v>
       </c>
       <c r="L206">
-        <v>0.18588817586478504</v>
+        <v>0.078838379755877902</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>919.68199028057222</v>
+        <v>268.56753768223672</v>
       </c>
       <c r="B207">
-        <v>1016.9974375422532</v>
+        <v>1093.0507730192674</v>
       </c>
       <c r="C207">
-        <v>781.09733107165926</v>
+        <v>4281.8922293390578</v>
       </c>
       <c r="D207">
-        <v>1034.4201357002696</v>
+        <v>3010.8467177966759</v>
       </c>
       <c r="E207">
-        <v>1003.9094143795628</v>
+        <v>4760.4662306305845</v>
       </c>
       <c r="F207">
-        <v>522.12454454603721</v>
+        <v>1158.6952941852364</v>
       </c>
       <c r="G207">
-        <v>919.68199028057222</v>
+        <v>268.56753768223894</v>
       </c>
       <c r="H207">
-        <v>1016.9974375422516</v>
+        <v>1093.0507730192232</v>
       </c>
       <c r="I207">
-        <v>781.09733107166119</v>
+        <v>4281.8922293390715</v>
       </c>
       <c r="J207">
-        <v>1034.4201357002696</v>
+        <v>3010.8467177968678</v>
       </c>
       <c r="K207">
-        <v>1003.9094143795638</v>
+        <v>4760.4662306305781</v>
       </c>
       <c r="L207">
-        <v>522.1245445460379</v>
+        <v>1158.6952941852276</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1.9625467721485126</v>
+        <v>1.9688363010654621</v>
       </c>
       <c r="B208">
-        <v>1.962299338534532</v>
+        <v>1.9621366700641951</v>
       </c>
       <c r="C208">
-        <v>1.9630057167706361</v>
+        <v>1.960518162556101</v>
       </c>
       <c r="D208">
-        <v>1.9622599589887921</v>
+        <v>1.9607522043261194</v>
       </c>
       <c r="E208">
-        <v>1.9623298207809554</v>
+        <v>1.9604624366100745</v>
       </c>
       <c r="F208">
-        <v>1.9645178528409206</v>
+        <v>1.9620134526575075</v>
       </c>
       <c r="G208">
-        <v>1.9625467721485126</v>
+        <v>1.9688363010654621</v>
       </c>
       <c r="H208">
-        <v>1.962299338534532</v>
+        <v>1.9621366700641951</v>
       </c>
       <c r="I208">
-        <v>1.9630057167706361</v>
+        <v>1.960518162556101</v>
       </c>
       <c r="J208">
-        <v>1.9622599589887921</v>
+        <v>1.9607522043261194</v>
       </c>
       <c r="K208">
-        <v>1.9623298207809554</v>
+        <v>1.9604624366100745</v>
       </c>
       <c r="L208">
-        <v>1.9645178528409206</v>
+        <v>1.9620134526575075</v>
       </c>
     </row>
     <row r="209">
@@ -4696,114 +4696,114 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.77053260468426354</v>
+        <v>0.96502919049354063</v>
       </c>
       <c r="B211">
-        <v>0.77374727460505011</v>
+        <v>0.93481989818039357</v>
       </c>
       <c r="C211">
-        <v>0.22946739531573651</v>
+        <v>0.034970809506459428</v>
       </c>
       <c r="D211">
-        <v>0.22625272539494992</v>
+        <v>0.065180101819606456</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.025826036055321275</v>
+        <v>0.0045883443973336767</v>
       </c>
       <c r="B212">
-        <v>0.014570210639639815</v>
+        <v>0.0045910139091548509</v>
       </c>
       <c r="C212">
-        <v>0.025826036055321279</v>
+        <v>0.0045883443973336784</v>
       </c>
       <c r="D212">
-        <v>0.014570210639639815</v>
+        <v>0.0045910139091548527</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>29.835496358547857</v>
+        <v>210.32187362708143</v>
       </c>
       <c r="B213">
-        <v>53.104741842234453</v>
+        <v>203.61948725885748</v>
       </c>
       <c r="C213">
-        <v>8.8851186772991557</v>
+        <v>7.6216618627802282</v>
       </c>
       <c r="D213">
-        <v>15.528445743907449</v>
+        <v>14.197321791953639</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>8.5248621633303523e-142</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>1.315725573951892e-303</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>2.7593541324769084e-18</v>
+        <v>5.0268737026415023e-14</v>
       </c>
       <c r="D214">
-        <v>3.0445086646100666e-49</v>
+        <v>1.0378923846820287e-44</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.71985549255126446</v>
+        <v>0.95602722450259048</v>
       </c>
       <c r="B215">
-        <v>0.74515819653075166</v>
+        <v>0.92581905735774506</v>
       </c>
       <c r="C215">
-        <v>0.17879028318273743</v>
+        <v>0.025968843515509276</v>
       </c>
       <c r="D215">
-        <v>0.1976636473206515</v>
+        <v>0.056179260996957893</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.82120971681726262</v>
+        <v>0.97403115648449079</v>
       </c>
       <c r="B216">
-        <v>0.80233635267934855</v>
+        <v>0.94382073900304209</v>
       </c>
       <c r="C216">
-        <v>0.28014450744873559</v>
+        <v>0.043972775497409577</v>
       </c>
       <c r="D216">
-        <v>0.25484180346924834</v>
+        <v>0.074180942642255027</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>1039.3982402893355</v>
+        <v>1213.8149960706521</v>
       </c>
       <c r="B217">
-        <v>1081.668381009724</v>
+        <v>4159.842646698914</v>
       </c>
       <c r="C217">
-        <v>1039.3982402893341</v>
+        <v>1213.8149960706351</v>
       </c>
       <c r="D217">
-        <v>1081.668381009724</v>
+        <v>4159.8426466988576</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.9622489500303084</v>
+        <v>1.9619202944271712</v>
       </c>
       <c r="B218">
-        <v>1.9621595583881792</v>
+        <v>1.9605344267635874</v>
       </c>
       <c r="C218">
-        <v>1.9622489500303084</v>
+        <v>1.9619202944271712</v>
       </c>
       <c r="D218">
-        <v>1.9621595583881792</v>
+        <v>1.9605344267635874</v>
       </c>
     </row>
     <row r="219">
@@ -4822,114 +4822,114 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.37924275199355378</v>
+        <v>0.90549072055802482</v>
       </c>
       <c r="B221">
-        <v>0.36178254276041033</v>
+        <v>0.82214192618757664</v>
       </c>
       <c r="C221">
-        <v>0.62075724800644627</v>
+        <v>0.094509279441975166</v>
       </c>
       <c r="D221">
-        <v>0.63821745723958956</v>
+        <v>0.17785807381242327</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.029810607548103114</v>
+        <v>0.006971879863417913</v>
       </c>
       <c r="B222">
-        <v>0.016594878336473322</v>
+        <v>0.0067771152019523067</v>
       </c>
       <c r="C222">
-        <v>0.029810607548103111</v>
+        <v>0.0069718798634179173</v>
       </c>
       <c r="D222">
-        <v>0.016594878336473325</v>
+        <v>0.0067771152019523084</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>12.721738440976036</v>
+        <v>129.87755645492643</v>
       </c>
       <c r="B223">
-        <v>21.800855385921132</v>
+        <v>121.31148751178664</v>
       </c>
       <c r="C223">
-        <v>20.823367890264482</v>
+        <v>13.555781409526846</v>
       </c>
       <c r="D223">
-        <v>38.458700588173208</v>
+        <v>26.243920681942523</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1.5928171588558335e-34</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>1.3838981234649694e-87</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>1.4753619047210469e-80</v>
+        <v>1.1701935231887532e-40</v>
       </c>
       <c r="D224">
-        <v>2.075536759975632e-204</v>
+        <v>2.7883507492103761e-142</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.32074577542086125</v>
+        <v>0.89182049283462939</v>
       </c>
       <c r="B225">
-        <v>0.3292206167935931</v>
+        <v>0.80885578942292369</v>
       </c>
       <c r="C225">
-        <v>0.56226027143375379</v>
+        <v>0.080839051718579705</v>
       </c>
       <c r="D225">
-        <v>0.60565553127277227</v>
+        <v>0.16457193704777032</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.43773972856624632</v>
+        <v>0.91916094828142025</v>
       </c>
       <c r="B226">
-        <v>0.39434446872722756</v>
+        <v>0.8354280629522296</v>
       </c>
       <c r="C226">
-        <v>0.67925422457913875</v>
+        <v>0.10817950716537063</v>
       </c>
       <c r="D226">
-        <v>0.67077938320640684</v>
+        <v>0.19114421057707623</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1022.261326044529</v>
+        <v>2957.6327967454022</v>
       </c>
       <c r="B227">
-        <v>1077.9206509166629</v>
+        <v>4970.8676757788253</v>
       </c>
       <c r="C227">
-        <v>1022.2613260445295</v>
+        <v>2957.6327967453199</v>
       </c>
       <c r="D227">
-        <v>1077.9206509166622</v>
+        <v>4970.8676757788053</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.9622872991870559</v>
+        <v>1.9607663917337965</v>
       </c>
       <c r="B228">
-        <v>1.9621672004217401</v>
+        <v>1.9604413336260789</v>
       </c>
       <c r="C228">
-        <v>1.9622872991870559</v>
+        <v>1.9607663917337965</v>
       </c>
       <c r="D228">
-        <v>1.9621672004217401</v>
+        <v>1.9604413336260789</v>
       </c>
     </row>
     <row r="229">
@@ -4948,44 +4948,44 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.97356016757999408</v>
+        <v>0.99629382456305726</v>
       </c>
       <c r="B231">
-        <v>0.98414388806419206</v>
+        <v>0.99509899927591106</v>
       </c>
       <c r="C231">
-        <v>0.026439832420005877</v>
+        <v>0.0037061754369427007</v>
       </c>
       <c r="D231">
-        <v>0.015856111935808027</v>
+        <v>0.0049010007240889355</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.01009708690440228</v>
+        <v>0.0014987234618467377</v>
       </c>
       <c r="B232">
-        <v>0.0043742469024876905</v>
+        <v>0.0013171281256736125</v>
       </c>
       <c r="C232">
-        <v>0.010097086904402279</v>
+        <v>0.0014987234618467342</v>
       </c>
       <c r="D232">
-        <v>0.0043742469024876897</v>
+        <v>0.0013171281256736131</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>96.419905740885184</v>
+        <v>664.76161208246981</v>
       </c>
       <c r="B233">
-        <v>224.98590271721901</v>
+        <v>755.50660553011301</v>
       </c>
       <c r="C233">
-        <v>2.6185604492002783</v>
+        <v>2.4728881153137707</v>
       </c>
       <c r="D233">
-        <v>3.6248781308596127</v>
+        <v>3.7209749215418491</v>
       </c>
     </row>
     <row r="234">
@@ -4996,66 +4996,66 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <v>0.0090529013255269165</v>
+        <v>0.01345540482713632</v>
       </c>
       <c r="D234">
-        <v>0.00030606770481546232</v>
+        <v>0.00020177788673551357</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.95373029433795276</v>
+        <v>0.99335524305302758</v>
       </c>
       <c r="B235">
-        <v>0.97555844886169407</v>
+        <v>0.99251652404407875</v>
       </c>
       <c r="C235">
-        <v>0.0066099591779645687</v>
+        <v>0.00076759392691303895</v>
       </c>
       <c r="D235">
-        <v>0.0072706727333100019</v>
+        <v>0.002318525492256588</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.99339004082203541</v>
+        <v>0.99923240607308694</v>
       </c>
       <c r="B236">
-        <v>0.99272932726669005</v>
+        <v>0.99768147450774336</v>
       </c>
       <c r="C236">
-        <v>0.046269705662047189</v>
+        <v>0.0066447569469723624</v>
       </c>
       <c r="D236">
-        <v>0.024441551138306053</v>
+        <v>0.007483475955921283</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>600.81603511405353</v>
+        <v>3126.7916325033975</v>
       </c>
       <c r="B237">
-        <v>860.71559617760909</v>
+        <v>3284.8950374275473</v>
       </c>
       <c r="C237">
-        <v>600.81603511405604</v>
+        <v>3126.791632503724</v>
       </c>
       <c r="D237">
-        <v>860.71559617761318</v>
+        <v>3284.8950374274682</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.963920230635589</v>
+        <v>1.9607229651350908</v>
       </c>
       <c r="B238">
-        <v>1.9627239600067792</v>
+        <v>1.9606864218404023</v>
       </c>
       <c r="C238">
-        <v>1.963920230635589</v>
+        <v>1.9607229651350941</v>
       </c>
       <c r="D238">
-        <v>1.9627239600067792</v>
+        <v>1.9606864218403988</v>
       </c>
     </row>
     <row r="239">
@@ -5074,114 +5074,114 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.87666447574218864</v>
+        <v>0.98123457843814577</v>
       </c>
       <c r="B241">
-        <v>0.88032629457034761</v>
+        <v>0.9652170256379462</v>
       </c>
       <c r="C241">
-        <v>0.12333552425781139</v>
+        <v>0.018765421561854255</v>
       </c>
       <c r="D241">
-        <v>0.11967370542965239</v>
+        <v>0.034782974362053763</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.020171701430132694</v>
+        <v>0.003226337793035786</v>
       </c>
       <c r="B242">
-        <v>0.01120387306255719</v>
+        <v>0.0034054061489439008</v>
       </c>
       <c r="C242">
-        <v>0.020171701430132697</v>
+        <v>0.0032263377930357852</v>
       </c>
       <c r="D242">
-        <v>0.011203873062557188</v>
+        <v>0.0034054061489439025</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>43.460115587107509</v>
+        <v>304.13262385488292</v>
       </c>
       <c r="B243">
-        <v>78.573390617246119</v>
+        <v>283.43668373808612</v>
       </c>
       <c r="C243">
-        <v>6.1142846420268491</v>
+        <v>5.8163226436984914</v>
       </c>
       <c r="D243">
-        <v>10.681458524338002</v>
+        <v>10.214045796810694</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>4.7223099107111019e-228</v>
+        <v>0</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
       <c r="C244">
-        <v>1.4146947183325405e-09</v>
+        <v>6.3925491522480031e-09</v>
       </c>
       <c r="D244">
-        <v>2.2720569435371278e-25</v>
+        <v>2.9207019180236815e-24</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.8370782375695851</v>
+        <v>0.97490952931777763</v>
       </c>
       <c r="B245">
-        <v>0.85834210941667621</v>
+        <v>0.95854098094012707</v>
       </c>
       <c r="C245">
-        <v>0.083749286085207875</v>
+        <v>0.01244037244148607</v>
       </c>
       <c r="D245">
-        <v>0.097689520275981032</v>
+        <v>0.028106929664234656</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.91625071391479218</v>
+        <v>0.9875596275585139</v>
       </c>
       <c r="B246">
-        <v>0.90231047972401901</v>
+        <v>0.97189307033576533</v>
       </c>
       <c r="C246">
-        <v>0.1629217624304149</v>
+        <v>0.025090470682222442</v>
       </c>
       <c r="D246">
-        <v>0.14165789058332373</v>
+        <v>0.04145901905987287</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>950.08646283224709</v>
+        <v>4960.7087842938672</v>
       </c>
       <c r="B247">
-        <v>1064.4423680329853</v>
+        <v>5142.5263299922262</v>
       </c>
       <c r="C247">
-        <v>950.0864628322463</v>
+        <v>4960.7087842938954</v>
       </c>
       <c r="D247">
-        <v>1064.4423680329874</v>
+        <v>5142.526329992199</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.9624640147344821</v>
+        <v>1.9604423114098986</v>
       </c>
       <c r="B248">
-        <v>1.9621951293915905</v>
+        <v>1.9604253959221603</v>
       </c>
       <c r="C248">
-        <v>1.9624640147344821</v>
+        <v>1.9604423114098986</v>
       </c>
       <c r="D248">
-        <v>1.9621951293915905</v>
+        <v>1.9604253959221603</v>
       </c>
     </row>
     <row r="249">
@@ -5200,114 +5200,114 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.46046268485466602</v>
+        <v>0.94852689569792636</v>
       </c>
       <c r="B251">
-        <v>0.78148562367730001</v>
+        <v>0.94600729140561257</v>
       </c>
       <c r="C251">
-        <v>0.53953731514533398</v>
+        <v>0.051473104302073656</v>
       </c>
       <c r="D251">
-        <v>0.21851437632270007</v>
+        <v>0.053992708594387581</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.10495066298316341</v>
+        <v>0.015210021916254233</v>
       </c>
       <c r="B252">
-        <v>0.013039135571808349</v>
+        <v>0.0035221848171732907</v>
       </c>
       <c r="C252">
-        <v>0.10495066298316341</v>
+        <v>0.015210021916254233</v>
       </c>
       <c r="D252">
-        <v>0.013039135571808349</v>
+        <v>0.0035221848171732907</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>4.3874204484876405</v>
+        <v>62.361967715791415</v>
       </c>
       <c r="B253">
-        <v>59.933852161713403</v>
+        <v>268.58536405957972</v>
       </c>
       <c r="C253">
-        <v>5.1408661918780698</v>
+        <v>3.3841571422764867</v>
       </c>
       <c r="D253">
-        <v>16.758348367444356</v>
+        <v>15.329322962024214</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1.2582000841795062e-05</v>
+        <v>0</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
       <c r="C254">
-        <v>3.2392562746880185e-07</v>
+        <v>0.00071925293212739662</v>
       </c>
       <c r="D254">
-        <v>2.8824776438833693e-56</v>
+        <v>6.5570318333454562e-52</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.25453471252530285</v>
+        <v>0.91870885871298968</v>
       </c>
       <c r="B255">
-        <v>0.75590100445806818</v>
+        <v>0.93910232849862152</v>
       </c>
       <c r="C255">
-        <v>0.33360934281597082</v>
+        <v>0.021655067317136949</v>
       </c>
       <c r="D255">
-        <v>0.19292975710346824</v>
+        <v>0.047087745687396577</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.66639065718402923</v>
+        <v>0.97834493268286304</v>
       </c>
       <c r="B256">
-        <v>0.80707024289653184</v>
+        <v>0.95291225431260362</v>
       </c>
       <c r="C256">
-        <v>0.7454652874746972</v>
+        <v>0.081291141287010371</v>
       </c>
       <c r="D256">
-        <v>0.2440989955419319</v>
+        <v>0.060897671501378585</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B257">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C257">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D257">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B258">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C258">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D258">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="259">
@@ -5326,114 +5326,114 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.65428321009688939</v>
+        <v>0.96009322707108224</v>
       </c>
       <c r="B261">
-        <v>0.35483408255163928</v>
+        <v>0.84200849804551559</v>
       </c>
       <c r="C261">
-        <v>0.34571678990311067</v>
+        <v>0.039906772928917776</v>
       </c>
       <c r="D261">
-        <v>0.64516591744836072</v>
+        <v>0.15799150195448447</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.10515399234561427</v>
+        <v>0.010035568250080179</v>
       </c>
       <c r="B262">
-        <v>0.014993644460075534</v>
+        <v>0.0054632108791724775</v>
       </c>
       <c r="C262">
-        <v>0.10515399234561427</v>
+        <v>0.010035568250080179</v>
       </c>
       <c r="D262">
-        <v>0.014993644460075534</v>
+        <v>0.0054632108791724775</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>6.22214331098745</v>
+        <v>95.669044656580525</v>
       </c>
       <c r="B263">
-        <v>23.665632695004675</v>
+        <v>154.12337481892263</v>
       </c>
       <c r="C263">
-        <v>3.2877191078663759</v>
+        <v>3.9765334592387376</v>
       </c>
       <c r="D263">
-        <v>43.029292789106897</v>
+        <v>28.919165935329175</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>6.9786626572097331e-10</v>
+        <v>0</v>
       </c>
       <c r="B264">
-        <v>2.8859150007904046e-100</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>0.0010422420078988936</v>
+        <v>7.0876610001907199e-05</v>
       </c>
       <c r="D264">
-        <v>2.6903616246898016e-237</v>
+        <v>1.1914575825736135e-170</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.44795627694027307</v>
+        <v>0.9404192945223091</v>
       </c>
       <c r="B265">
-        <v>0.32541444180114615</v>
+        <v>0.83129830808335736</v>
       </c>
       <c r="C265">
-        <v>0.13938985674649437</v>
+        <v>0.020232840380144612</v>
       </c>
       <c r="D265">
-        <v>0.61574627669786763</v>
+        <v>0.14728131199232619</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.86061014325350571</v>
+        <v>0.97976715961985539</v>
       </c>
       <c r="B266">
-        <v>0.38425372330213242</v>
+        <v>0.85271868800767381</v>
       </c>
       <c r="C266">
-        <v>0.55204372305972693</v>
+        <v>0.05958070547769094</v>
       </c>
       <c r="D266">
-        <v>0.6745855581988538</v>
+        <v>0.16870169191664275</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B267">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C267">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D267">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B268">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C268">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D268">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="269">
@@ -5452,44 +5452,44 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.98091376848546674</v>
+        <v>0.99751824512534815</v>
       </c>
       <c r="B271">
-        <v>0.98209288682644558</v>
+        <v>0.99554656644510886</v>
       </c>
       <c r="C271">
-        <v>0.019086231514533401</v>
+        <v>0.0024817548746518107</v>
       </c>
       <c r="D271">
-        <v>0.017907113173554368</v>
+        <v>0.0044534335548912186</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.011633022303041434</v>
+        <v>0.0014743877265855586</v>
       </c>
       <c r="B272">
-        <v>0.0041816424408706865</v>
+        <v>0.0010477045805802917</v>
       </c>
       <c r="C272">
-        <v>0.011633022303041434</v>
+        <v>0.0014743877265855586</v>
       </c>
       <c r="D272">
-        <v>0.0041816424408706865</v>
+        <v>0.0010477045805802917</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>84.32148954352202</v>
+        <v>676.56439831837019</v>
       </c>
       <c r="B273">
-        <v>234.85816894042182</v>
+        <v>950.21686923780157</v>
       </c>
       <c r="C273">
-        <v>1.6406941392645089</v>
+        <v>1.6832443935213366</v>
       </c>
       <c r="D273">
-        <v>4.2823157232510329</v>
+        <v>4.250657711570371</v>
       </c>
     </row>
     <row r="274">
@@ -5500,66 +5500,66 @@
         <v>0</v>
       </c>
       <c r="C274">
-        <v>0.10114916276903216</v>
+        <v>0.09238782876311212</v>
       </c>
       <c r="D274">
-        <v>2.012430840688454e-05</v>
+        <v>2.1687689293900736e-05</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.95808814140665655</v>
+        <v>0.99462782537424421</v>
       </c>
       <c r="B275">
-        <v>0.97388791580122158</v>
+        <v>0.99349262503036007</v>
       </c>
       <c r="C275">
-        <v>-0.0037393955642768262</v>
+        <v>-0.00040866487645212311</v>
       </c>
       <c r="D275">
-        <v>0.0097021421483303241</v>
+        <v>0.0023994921401424667</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1.003739395564277</v>
+        <v>1.0004086648764521</v>
       </c>
       <c r="B276">
-        <v>0.99029785785166957</v>
+        <v>0.99760050785985765</v>
       </c>
       <c r="C276">
-        <v>0.041911858593343627</v>
+        <v>0.0053721746257557445</v>
       </c>
       <c r="D276">
-        <v>0.026112084198778411</v>
+        <v>0.0065073749696399705</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B277">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C277">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D277">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B278">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C278">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D278">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="279">
@@ -5578,114 +5578,114 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.90434033656297808</v>
+        <v>0.98697096100278547</v>
       </c>
       <c r="B281">
-        <v>0.88158740694461513</v>
+        <v>0.97056761495923427</v>
       </c>
       <c r="C281">
-        <v>0.095659663437021925</v>
+        <v>0.013029038997214484</v>
       </c>
       <c r="D281">
-        <v>0.11841259305538487</v>
+        <v>0.029432385040765841</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.023341355354886306</v>
+        <v>0.0032548534884494222</v>
       </c>
       <c r="B282">
-        <v>0.010145513161173075</v>
+        <v>0.0026519378942993473</v>
       </c>
       <c r="C282">
-        <v>0.023341355354886306</v>
+        <v>0.0032548534884494222</v>
       </c>
       <c r="D282">
-        <v>0.010145513161173075</v>
+        <v>0.0026519378942993473</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>38.744122730373604</v>
+        <v>303.23053387971942</v>
       </c>
       <c r="B283">
-        <v>86.894314061752354</v>
+        <v>365.98429286205521</v>
       </c>
       <c r="C283">
-        <v>4.0982908654015429</v>
+        <v>4.0029571356901172</v>
       </c>
       <c r="D283">
-        <v>11.671424714971581</v>
+        <v>11.098444312754916</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>3.0665232683243689e-207</v>
+        <v>0</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
       <c r="C284">
-        <v>4.4704871681484417e-05</v>
+        <v>6.3426677084370639e-05</v>
       </c>
       <c r="D284">
-        <v>9.6146770732709118e-30</v>
+        <v>2.6485337045604061e-28</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.85854131211639639</v>
+        <v>0.98059007988154145</v>
       </c>
       <c r="B285">
-        <v>0.86168048216552728</v>
+        <v>0.96536870185777002</v>
       </c>
       <c r="C285">
-        <v>0.049860638990440208</v>
+        <v>0.0066481578759704178</v>
       </c>
       <c r="D285">
-        <v>0.098505668276296976</v>
+        <v>0.024233471939301553</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.95013936100955976</v>
+        <v>0.99335184212402949</v>
       </c>
       <c r="B286">
-        <v>0.90149433172370297</v>
+        <v>0.97576652806069852</v>
       </c>
       <c r="C286">
-        <v>0.14145868788360363</v>
+        <v>0.019409920118458553</v>
       </c>
       <c r="D286">
-        <v>0.13831951783447277</v>
+        <v>0.034631298142230128</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B287">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C287">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D287">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B288">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C288">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D288">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="289">
@@ -5704,114 +5704,162 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.75111980850868243</v>
+        <v>0.92276851765305068</v>
       </c>
       <c r="B291">
-        <v>0.8615148217930898</v>
+        <v>0.94376276969976602</v>
       </c>
       <c r="C291">
-        <v>0.2488801914913176</v>
+        <v>0.9627101940130679</v>
       </c>
       <c r="D291">
-        <v>0.13848517820691014</v>
+        <v>0.077231482346949279</v>
+      </c>
+      <c r="E291">
+        <v>0.056237230300233899</v>
+      </c>
+      <c r="F291">
+        <v>0.037289805986932205</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.014560173086440888</v>
+        <v>0.0069520080014496268</v>
       </c>
       <c r="B292">
-        <v>0.024961452220516423</v>
+        <v>0.0096088256389518685</v>
       </c>
       <c r="C292">
-        <v>0.014560173086440888</v>
+        <v>0.0037183662064230491</v>
       </c>
       <c r="D292">
-        <v>0.02496145222051643</v>
+        <v>0.0069520080014496303</v>
+      </c>
+      <c r="E292">
+        <v>0.0096088256389518702</v>
+      </c>
+      <c r="F292">
+        <v>0.003718366206423046</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>51.587285676442967</v>
+        <v>132.73409890504092</v>
       </c>
       <c r="B293">
-        <v>34.513810101360605</v>
+        <v>98.218326064111181</v>
       </c>
       <c r="C293">
-        <v>17.093216544457594</v>
+        <v>258.90677264388239</v>
       </c>
       <c r="D293">
-        <v>5.5479615922781038</v>
+        <v>11.109233811417507</v>
+      </c>
+      <c r="E293">
+        <v>5.8526642498602204</v>
+      </c>
+      <c r="F293">
+        <v>10.028545849657947</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>1.0813463673216209e-293</v>
+        <v>0</v>
       </c>
       <c r="B294">
-        <v>5.2040254171052702e-167</v>
+        <v>0</v>
       </c>
       <c r="C294">
-        <v>3.6682534626625182e-58</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>3.7997255031633674e-08</v>
+        <v>4.3628603053844383e-28</v>
+      </c>
+      <c r="E294">
+        <v>5.2727929407536374e-09</v>
+      </c>
+      <c r="F294">
+        <v>3.038818269464953e-23</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.72255038780979552</v>
+        <v>0.90913690791643909</v>
       </c>
       <c r="B295">
-        <v>0.81252546768290279</v>
+        <v>0.92492344666003168</v>
       </c>
       <c r="C295">
-        <v>0.22031077079243067</v>
+        <v>0.95541889366399457</v>
       </c>
       <c r="D295">
-        <v>0.089495824096723076</v>
+        <v>0.063599872610337643</v>
+      </c>
+      <c r="E295">
+        <v>0.037397907260499519</v>
+      </c>
+      <c r="F295">
+        <v>0.029998505637858906</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.77968922920756933</v>
+        <v>0.93640012738966227</v>
       </c>
       <c r="B296">
-        <v>0.91050417590327681</v>
+        <v>0.96260209273950037</v>
       </c>
       <c r="C296">
-        <v>0.27744961219020453</v>
+        <v>0.97000149436214123</v>
       </c>
       <c r="D296">
-        <v>0.18747453231709721</v>
+        <v>0.090863092083560915</v>
+      </c>
+      <c r="E296">
+        <v>0.07507655333996828</v>
+      </c>
+      <c r="F296">
+        <v>0.044581106336005503</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1080.3887349224728</v>
+        <v>2784.9239208123754</v>
       </c>
       <c r="B297">
-        <v>901.02612205802507</v>
+        <v>3579.1624143286649</v>
       </c>
       <c r="C297">
-        <v>1080.3887349224726</v>
+        <v>2568.0353071937257</v>
       </c>
       <c r="D297">
-        <v>901.02612205802109</v>
+        <v>2784.9239208123035</v>
+      </c>
+      <c r="E297">
+        <v>3579.1624143286203</v>
+      </c>
+      <c r="F297">
+        <v>2568.0353071938257</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.9621621617597469</v>
+        <v>1.9608161748043402</v>
       </c>
       <c r="B298">
-        <v>1.962600319781135</v>
+        <v>1.9606270055899742</v>
       </c>
       <c r="C298">
-        <v>1.9621621617597469</v>
+        <v>1.9608881816100914</v>
       </c>
       <c r="D298">
-        <v>1.962600319781135</v>
+        <v>1.9608161748043402</v>
+      </c>
+      <c r="E298">
+        <v>1.9606270055899742</v>
+      </c>
+      <c r="F298">
+        <v>1.9608881816100914</v>
       </c>
     </row>
     <row r="299">
@@ -5827,117 +5875,171 @@
       <c r="D299">
         <v>0</v>
       </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.39857538280676696</v>
+        <v>0.87800112147862119</v>
       </c>
       <c r="B301">
-        <v>0.2335561114187012</v>
+        <v>0.85546779270012208</v>
       </c>
       <c r="C301">
-        <v>0.60142461719323304</v>
+        <v>0.84415890280737482</v>
       </c>
       <c r="D301">
-        <v>0.76644388858129875</v>
+        <v>0.12199887852137881</v>
+      </c>
+      <c r="E301">
+        <v>0.14453220729987801</v>
+      </c>
+      <c r="F301">
+        <v>0.15584109719262523</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.016372572060880698</v>
+        <v>0.0084426767432867651</v>
       </c>
       <c r="B302">
-        <v>0.029978927608837806</v>
+        <v>0.013945084303923017</v>
       </c>
       <c r="C302">
-        <v>0.016372572060880698</v>
+        <v>0.0067197280404583315</v>
       </c>
       <c r="D302">
-        <v>0.029978927608837806</v>
+        <v>0.0084426767432867686</v>
+      </c>
+      <c r="E302">
+        <v>0.01394508430392301</v>
+      </c>
+      <c r="F302">
+        <v>0.0067197280404583323</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>24.344090917705643</v>
+        <v>103.99558672867204</v>
       </c>
       <c r="B303">
-        <v>7.7906759863501156</v>
+        <v>61.345473003663571</v>
       </c>
       <c r="C303">
-        <v>36.733667438253548</v>
+        <v>125.62396836967785</v>
       </c>
       <c r="D303">
-        <v>25.566087572637208</v>
+        <v>14.45026053122154</v>
+      </c>
+      <c r="E303">
+        <v>10.364383904026914</v>
+      </c>
+      <c r="F303">
+        <v>23.191578030291204</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>8.4965847873195058e-105</v>
+        <v>0</v>
       </c>
       <c r="B304">
-        <v>1.6423405307363543e-14</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>1.2919476007313912e-192</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>1.1042404055808719e-111</v>
+        <v>6.7942257833711177e-46</v>
+      </c>
+      <c r="E304">
+        <v>3.7712297609325382e-24</v>
+      </c>
+      <c r="F304">
+        <v>3.8790590579180716e-112</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.3664498989379566</v>
+        <v>0.86144750448802354</v>
       </c>
       <c r="B305">
-        <v>0.1747283221708458</v>
+        <v>0.82810787030389033</v>
       </c>
       <c r="C305">
-        <v>0.56929913332442272</v>
+        <v>0.83098472652105571</v>
       </c>
       <c r="D305">
-        <v>0.70761609933344338</v>
+        <v>0.10544526153078117</v>
+      </c>
+      <c r="E305">
+        <v>0.1171722849036463</v>
+      </c>
+      <c r="F305">
+        <v>0.14266692090630609</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.43070086667557733</v>
+        <v>0.89455473846921885</v>
       </c>
       <c r="B306">
-        <v>0.29238390066655656</v>
+        <v>0.88282771509635383</v>
       </c>
       <c r="C306">
-        <v>0.63355010106204335</v>
+        <v>0.85733307909369394</v>
       </c>
       <c r="D306">
-        <v>0.82527167782915412</v>
+        <v>0.13855249551197646</v>
+      </c>
+      <c r="E306">
+        <v>0.17189212969610973</v>
+      </c>
+      <c r="F306">
+        <v>0.16901527347894438</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>1085.132925302576</v>
+        <v>3193.1364859279583</v>
       </c>
       <c r="B307">
-        <v>1014.6894789056743</v>
+        <v>1180.1713492426786</v>
       </c>
       <c r="C307">
-        <v>1085.1329253025758</v>
+        <v>4250.6079850329834</v>
       </c>
       <c r="D307">
-        <v>1014.6894789056743</v>
+        <v>3193.1364859279124</v>
+      </c>
+      <c r="E307">
+        <v>1180.171349242702</v>
+      </c>
+      <c r="F307">
+        <v>4250.6079850329543</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1.9621525408074632</v>
+        <v>1.9607071896671067</v>
       </c>
       <c r="B308">
-        <v>1.9623046566386491</v>
+        <v>1.9619761200392929</v>
       </c>
       <c r="C308">
-        <v>1.9621525408074632</v>
+        <v>1.9605222424180933</v>
       </c>
       <c r="D308">
-        <v>1.9623046566386491</v>
+        <v>1.9607071896671067</v>
+      </c>
+      <c r="E308">
+        <v>1.9619761200392929</v>
+      </c>
+      <c r="F308">
+        <v>1.9605222424180966</v>
       </c>
     </row>
     <row r="309">
@@ -5953,47 +6055,71 @@
       <c r="D309">
         <v>0</v>
       </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.98010102573497238</v>
+        <v>0.99511439736478535</v>
       </c>
       <c r="B311">
-        <v>0.9847496246986237</v>
+        <v>0.99654283025955692</v>
       </c>
       <c r="C311">
-        <v>0.019898974265027718</v>
+        <v>0.99594972478699229</v>
       </c>
       <c r="D311">
-        <v>0.015250375301376292</v>
+        <v>0.0048856026352145582</v>
+      </c>
+      <c r="E311">
+        <v>0.003457169740443071</v>
+      </c>
+      <c r="F311">
+        <v>0.0040502752130077719</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.0046856958671122571</v>
+        <v>0.0017519201765238052</v>
       </c>
       <c r="B312">
-        <v>0.0088291404444962879</v>
+        <v>0.0024516101626386269</v>
       </c>
       <c r="C312">
-        <v>0.0046856958671122563</v>
+        <v>0.0012226775966480499</v>
       </c>
       <c r="D312">
-        <v>0.0088291404444962879</v>
+        <v>0.001751920176523805</v>
+      </c>
+      <c r="E312">
+        <v>0.0024516101626386264</v>
+      </c>
+      <c r="F312">
+        <v>0.0012226775966480503</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>209.16872403393904</v>
+        <v>568.01354918995855</v>
       </c>
       <c r="B313">
-        <v>111.53403107461892</v>
+        <v>406.48502989847071</v>
       </c>
       <c r="C313">
-        <v>4.2467490057760067</v>
+        <v>814.56446696772048</v>
       </c>
       <c r="D313">
-        <v>1.7272774623131892</v>
+        <v>2.7887130365201163</v>
+      </c>
+      <c r="E313">
+        <v>1.4101629178768691</v>
+      </c>
+      <c r="F313">
+        <v>3.312627322289647</v>
       </c>
     </row>
     <row r="314">
@@ -6004,66 +6130,96 @@
         <v>0</v>
       </c>
       <c r="C314">
-        <v>2.3537673712647243e-05</v>
+        <v>0</v>
       </c>
       <c r="D314">
-        <v>0.084401039137932357</v>
+        <v>0.0053110491289988905</v>
+      </c>
+      <c r="E314">
+        <v>0.15855141705723408</v>
+      </c>
+      <c r="F314">
+        <v>0.00093055787336687311</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.97090702905561888</v>
+        <v>0.9916798969316678</v>
       </c>
       <c r="B315">
-        <v>0.96742559674701989</v>
+        <v>0.99173664349302726</v>
       </c>
       <c r="C315">
-        <v>0.01070497758567422</v>
+        <v>0.99355276249931801</v>
       </c>
       <c r="D315">
-        <v>-0.0020736526502275164</v>
+        <v>0.0014511022020970276</v>
+      </c>
+      <c r="E315">
+        <v>-0.001349017026086639</v>
+      </c>
+      <c r="F315">
+        <v>0.0016533129253334662</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.98929502241432588</v>
+        <v>0.9985488977979029</v>
       </c>
       <c r="B316">
-        <v>1.0020736526502274</v>
+        <v>1.0013490170260866</v>
       </c>
       <c r="C316">
-        <v>0.029092970944381215</v>
+        <v>0.99834668707466656</v>
       </c>
       <c r="D316">
-        <v>0.032574403252980097</v>
+        <v>0.0083201030683320888</v>
+      </c>
+      <c r="E316">
+        <v>0.0082633565069727809</v>
+      </c>
+      <c r="F316">
+        <v>0.0064472375006820772</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>1090.8038330919321</v>
+        <v>5196.3351901447013</v>
       </c>
       <c r="B317">
-        <v>1090.3413517628701</v>
+        <v>5197.9170446299613</v>
       </c>
       <c r="C317">
-        <v>1090.8038330919328</v>
+        <v>5197.0847697551044</v>
       </c>
       <c r="D317">
-        <v>1090.3413517628701</v>
+        <v>5196.335190144704</v>
+      </c>
+      <c r="E317">
+        <v>5197.9170446299631</v>
+      </c>
+      <c r="F317">
+        <v>5197.0847697550998</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.9621411504497961</v>
+        <v>1.9604206168413076</v>
       </c>
       <c r="B318">
-        <v>1.9621420749290348</v>
+        <v>1.9604204778450145</v>
       </c>
       <c r="C318">
-        <v>1.9621411504497961</v>
+        <v>1.9604205509657957</v>
       </c>
       <c r="D318">
-        <v>1.9621420749290348</v>
+        <v>1.9604206168413076</v>
+      </c>
+      <c r="E318">
+        <v>1.9604204778450145</v>
+      </c>
+      <c r="F318">
+        <v>1.9604205509657957</v>
       </c>
     </row>
     <row r="319">
@@ -6079,47 +6235,71 @@
       <c r="D319">
         <v>0</v>
       </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.87020378294957834</v>
+        <v>0.96692303061147966</v>
       </c>
       <c r="B321">
-        <v>0.92017944208958524</v>
+        <v>0.96923822736575826</v>
       </c>
       <c r="C321">
-        <v>0.12979621705042166</v>
+        <v>0.97600011876380355</v>
       </c>
       <c r="D321">
-        <v>0.079820557910414758</v>
+        <v>0.033076969388520436</v>
+      </c>
+      <c r="E321">
+        <v>0.030761772634241791</v>
+      </c>
+      <c r="F321">
+        <v>0.023999881236196355</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.011165869737509469</v>
+        <v>0.004617296568854035</v>
       </c>
       <c r="B322">
-        <v>0.019225587940940012</v>
+        <v>0.0073474715599312406</v>
       </c>
       <c r="C322">
-        <v>0.011165869737509467</v>
+        <v>0.0029797416979391355</v>
       </c>
       <c r="D322">
-        <v>0.019225587940940012</v>
+        <v>0.0046172965688540324</v>
+      </c>
+      <c r="E322">
+        <v>0.0073474715599312476</v>
+      </c>
+      <c r="F322">
+        <v>0.002979741697939142</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>77.934258898463213</v>
+        <v>209.41323915250692</v>
       </c>
       <c r="B323">
-        <v>47.862226368126052</v>
+        <v>131.91452589641989</v>
       </c>
       <c r="C323">
-        <v>11.624371419487161</v>
+        <v>327.5452095189425</v>
       </c>
       <c r="D323">
-        <v>4.1517876153186721</v>
+        <v>7.163709087183415</v>
+      </c>
+      <c r="E323">
+        <v>4.1867154412680216</v>
+      </c>
+      <c r="F323">
+        <v>8.0543495608344937</v>
       </c>
     </row>
     <row r="324">
@@ -6127,69 +6307,99 @@
         <v>0</v>
       </c>
       <c r="B324">
-        <v>7.622033003562742e-264</v>
+        <v>0</v>
       </c>
       <c r="C324">
-        <v>1.5842527409248468e-29</v>
+        <v>0</v>
       </c>
       <c r="D324">
-        <v>3.5723116664118948e-05</v>
+        <v>9.6099733967417469e-13</v>
+      </c>
+      <c r="E324">
+        <v>2.9240594855399549e-05</v>
+      </c>
+      <c r="F324">
+        <v>1.090706318310343e-15</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.84829471856566185</v>
+        <v>0.95787002632833873</v>
       </c>
       <c r="B325">
-        <v>0.88245355426259331</v>
+        <v>0.95483075742392931</v>
       </c>
       <c r="C325">
-        <v>0.10788715266650516</v>
+        <v>0.97015787773260198</v>
       </c>
       <c r="D325">
-        <v>0.042094670083422846</v>
+        <v>0.02402396510537954</v>
+      </c>
+      <c r="E325">
+        <v>0.016354302692412837</v>
+      </c>
+      <c r="F325">
+        <v>0.018157640204994815</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.89211284733349483</v>
+        <v>0.97597603489462059</v>
       </c>
       <c r="B326">
-        <v>0.95790532991657718</v>
+        <v>0.98364569730758722</v>
       </c>
       <c r="C326">
-        <v>0.15170528143433815</v>
+        <v>0.98184235979500512</v>
       </c>
       <c r="D326">
-        <v>0.11754644573740666</v>
+        <v>0.042129973671661332</v>
+      </c>
+      <c r="E326">
+        <v>0.045169242576070745</v>
+      </c>
+      <c r="F326">
+        <v>0.029842122267397894</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>1088.4829242005355</v>
+        <v>3351.5926122393221</v>
       </c>
       <c r="B327">
-        <v>1027.7589903505907</v>
+        <v>2606.480502469758</v>
       </c>
       <c r="C327">
-        <v>1088.4829242005362</v>
+        <v>3441.6095596202872</v>
       </c>
       <c r="D327">
-        <v>1027.7589903505902</v>
+        <v>3351.5926122393885</v>
+      </c>
+      <c r="E327">
+        <v>2606.4805024696461</v>
+      </c>
+      <c r="F327">
+        <v>3441.6095596199352</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1.962145797771351</v>
+        <v>1.9606720400435014</v>
       </c>
       <c r="B328">
-        <v>1.9622748569710278</v>
+        <v>1.9608745436183452</v>
       </c>
       <c r="C328">
-        <v>1.962145797771351</v>
+        <v>1.9606535141090147</v>
       </c>
       <c r="D328">
-        <v>1.9622748569710242</v>
+        <v>1.9606720400435014</v>
+      </c>
+      <c r="E328">
+        <v>1.9608745436183452</v>
+      </c>
+      <c r="F328">
+        <v>1.9606535141090147</v>
       </c>
     </row>
     <row r="329">
@@ -6205,165 +6415,171 @@
       <c r="D329">
         <v>0</v>
       </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.69118311637501773</v>
+        <v>0.91586525479906378</v>
       </c>
       <c r="B331">
-        <v>0.81280646258503386</v>
+        <v>0.95302986123536049</v>
       </c>
       <c r="C331">
-        <v>0.77367746186303155</v>
+        <v>0.9544458401634357</v>
       </c>
       <c r="D331">
-        <v>0.30881688362498222</v>
+        <v>0.084134745200936167</v>
       </c>
       <c r="E331">
-        <v>0.187193537414966</v>
+        <v>0.046970138764639381</v>
       </c>
       <c r="F331">
-        <v>0.22632253813696854</v>
+        <v>0.045554159836564342</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.037536953835621237</v>
+        <v>0.010938302052953514</v>
       </c>
       <c r="B332">
-        <v>0.021019437971925969</v>
+        <v>0.005732498926794497</v>
       </c>
       <c r="C332">
-        <v>0.018431435049836058</v>
+        <v>0.004120030379365449</v>
       </c>
       <c r="D332">
-        <v>0.037536953835621237</v>
+        <v>0.010938302052953514</v>
       </c>
       <c r="E332">
-        <v>0.021019437971925969</v>
+        <v>0.005732498926794497</v>
       </c>
       <c r="F332">
-        <v>0.018431435049836058</v>
+        <v>0.004120030379365449</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>18.413404545339251</v>
+        <v>83.730111891704965</v>
       </c>
       <c r="B333">
-        <v>38.66927667954949</v>
+        <v>166.2503340001978</v>
       </c>
       <c r="C333">
-        <v>41.975975271112333</v>
+        <v>231.65990351518616</v>
       </c>
       <c r="D333">
-        <v>8.2270097082818143</v>
+        <v>7.6917555205214381</v>
       </c>
       <c r="E333">
-        <v>8.9057346664066799</v>
+        <v>8.193658536087014</v>
       </c>
       <c r="F333">
-        <v>12.279159898565879</v>
+        <v>11.05675338335258</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>3.8273318485577518e-66</v>
+        <v>0</v>
       </c>
       <c r="B334">
-        <v>1.0402755451860936e-206</v>
+        <v>0</v>
       </c>
       <c r="C334">
-        <v>5.6840802889286367e-230</v>
+        <v>0</v>
       </c>
       <c r="D334">
-        <v>5.4204324788567788e-16</v>
+        <v>1.7248185429717641e-14</v>
       </c>
       <c r="E334">
-        <v>2.1723364121656321e-18</v>
+        <v>3.1615826892734112e-16</v>
       </c>
       <c r="F334">
-        <v>1.4804968835587865e-32</v>
+        <v>4.1737289845783037e-28</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.61753032971248412</v>
+        <v>0.89442158450304488</v>
       </c>
       <c r="B335">
-        <v>0.77156336684817384</v>
+        <v>0.94179175349584421</v>
       </c>
       <c r="C335">
-        <v>0.73751239211457276</v>
+        <v>0.94636884863065585</v>
       </c>
       <c r="D335">
-        <v>0.23516409696244867</v>
+        <v>0.062691074904917293</v>
       </c>
       <c r="E335">
-        <v>0.145950441678106</v>
+        <v>0.035732031025123144</v>
       </c>
       <c r="F335">
-        <v>0.19015746838850978</v>
+        <v>0.037477168303784468</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.76483590303755133</v>
+        <v>0.93730892509508268</v>
       </c>
       <c r="B336">
-        <v>0.85404955832189389</v>
+        <v>0.96426796897487677</v>
       </c>
       <c r="C336">
-        <v>0.80984253161149033</v>
+        <v>0.96252283169621555</v>
       </c>
       <c r="D336">
-        <v>0.38246967028751577</v>
+        <v>0.10557841549695504</v>
       </c>
       <c r="E336">
-        <v>0.228436633151826</v>
+        <v>0.058208246504155618</v>
       </c>
       <c r="F336">
-        <v>0.2624876078854273</v>
+        <v>0.053631151369344217</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B337">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C337">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D337">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E337">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F337">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B338">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C338">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D338">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E338">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F338">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="339">
@@ -6388,162 +6604,162 @@
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.47792900365153895</v>
+        <v>0.85588330647648037</v>
       </c>
       <c r="B341">
-        <v>0.32361929392446631</v>
+        <v>0.83335438836081965</v>
       </c>
       <c r="C341">
-        <v>0.36836763759447305</v>
+        <v>0.86962323342857073</v>
       </c>
       <c r="D341">
-        <v>0.52207099634846121</v>
+        <v>0.14411669352351963</v>
       </c>
       <c r="E341">
-        <v>0.67638070607553358</v>
+        <v>0.16664561163918024</v>
       </c>
       <c r="F341">
-        <v>0.63163236240552689</v>
+        <v>0.13037676657142933</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.040038343692615615</v>
+        <v>0.013211741718625937</v>
       </c>
       <c r="B342">
-        <v>0.02556362038582707</v>
+        <v>0.0097933817153174445</v>
       </c>
       <c r="C342">
-        <v>0.021063802284649321</v>
+        <v>0.006418320771317306</v>
       </c>
       <c r="D342">
-        <v>0.040038343692615615</v>
+        <v>0.013211741718625937</v>
       </c>
       <c r="E342">
-        <v>0.02556362038582707</v>
+        <v>0.0097933817153174445</v>
       </c>
       <c r="F342">
-        <v>0.021063802284649321</v>
+        <v>0.006418320771317306</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>11.9367825832337</v>
+        <v>64.782019260174792</v>
       </c>
       <c r="B343">
-        <v>12.659368627766302</v>
+        <v>85.093628798048655</v>
       </c>
       <c r="C343">
-        <v>17.488183406607863</v>
+        <v>135.49077156050086</v>
       </c>
       <c r="D343">
-        <v>13.039275559362068</v>
+        <v>10.908228195253292</v>
       </c>
       <c r="E343">
-        <v>26.458721255715844</v>
+        <v>17.0161458506755</v>
       </c>
       <c r="F343">
-        <v>29.986626054966436</v>
+        <v>20.313220734318424</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>5.8632828017353461e-31</v>
+        <v>0</v>
       </c>
       <c r="B344">
-        <v>2.274545525407535e-34</v>
+        <v>0</v>
       </c>
       <c r="C344">
-        <v>1.4716240405597152e-60</v>
+        <v>0</v>
       </c>
       <c r="D344">
-        <v>3.1957035244387566e-36</v>
+        <v>2.0821831523975739e-27</v>
       </c>
       <c r="E344">
-        <v>1.4043512744700634e-119</v>
+        <v>3.1258621511387814e-63</v>
       </c>
       <c r="F344">
-        <v>1.3813327901902065e-144</v>
+        <v>2.4374233403368799e-88</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>0.39936813802490467</v>
+        <v>0.82998273872118833</v>
       </c>
       <c r="B345">
-        <v>0.27345987270865701</v>
+        <v>0.81415524323119493</v>
       </c>
       <c r="C345">
-        <v>0.32703749283187827</v>
+        <v>0.85704062656619628</v>
       </c>
       <c r="D345">
-        <v>0.44351013072182693</v>
+        <v>0.1182161257682276</v>
       </c>
       <c r="E345">
-        <v>0.62622128485972428</v>
+        <v>0.14744646650955545</v>
       </c>
       <c r="F345">
-        <v>0.59030221764293211</v>
+        <v>0.11779415970905484</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>0.55648986927817323</v>
+        <v>0.8817838742317724</v>
       </c>
       <c r="B346">
-        <v>0.37377871514027561</v>
+        <v>0.85255353349044438</v>
       </c>
       <c r="C346">
-        <v>0.40969778235706783</v>
+        <v>0.88220584029094518</v>
       </c>
       <c r="D346">
-        <v>0.60063186197509544</v>
+        <v>0.17001726127881167</v>
       </c>
       <c r="E346">
-        <v>0.72654012729134287</v>
+        <v>0.18584475676880502</v>
       </c>
       <c r="F346">
-        <v>0.67296250716812167</v>
+        <v>0.14295937343380383</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B347">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C347">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D347">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E347">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F347">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B348">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C348">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D348">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E348">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F348">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="349">
@@ -6568,62 +6784,62 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>0.97535774766443795</v>
+        <v>0.99322880500503741</v>
       </c>
       <c r="B351">
-        <v>0.98050039878020168</v>
+        <v>0.99521863152591483</v>
       </c>
       <c r="C351">
-        <v>0.98504594241201837</v>
+        <v>0.99717358227273833</v>
       </c>
       <c r="D351">
-        <v>0.024642252335562196</v>
+        <v>0.0067711949949625632</v>
       </c>
       <c r="E351">
-        <v>0.019499601219798265</v>
+        <v>0.0047813684740852704</v>
       </c>
       <c r="F351">
-        <v>0.014954057587981639</v>
+        <v>0.0028264177272615768</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>0.01219171549862496</v>
+        <v>0.0031928530045310464</v>
       </c>
       <c r="B352">
-        <v>0.0072976305839906538</v>
+        <v>0.0018191062990316053</v>
       </c>
       <c r="C352">
-        <v>0.0052581802192947042</v>
+        <v>0.0010160332985217789</v>
       </c>
       <c r="D352">
-        <v>0.01219171549862496</v>
+        <v>0.0031928530045310464</v>
       </c>
       <c r="E352">
-        <v>0.0072976305839906538</v>
+        <v>0.0018191062990316053</v>
       </c>
       <c r="F352">
-        <v>0.0052581802192947042</v>
+        <v>0.0010160332985217789</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>80.001682107365738</v>
+        <v>311.07877612765918</v>
       </c>
       <c r="B353">
-        <v>134.35873294699201</v>
+        <v>547.09207046103677</v>
       </c>
       <c r="C353">
-        <v>187.33590355032479</v>
+        <v>981.4378955133858</v>
       </c>
       <c r="D353">
-        <v>2.0212292796974691</v>
+        <v>2.1207349619144429</v>
       </c>
       <c r="E353">
-        <v>2.672045535242078</v>
+        <v>2.6284162045014163</v>
       </c>
       <c r="F353">
-        <v>2.8439606411945069</v>
+        <v>2.7818160402554879</v>
       </c>
     </row>
     <row r="354">
@@ -6637,93 +6853,93 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>0.043499858540796112</v>
+        <v>0.033991325067293257</v>
       </c>
       <c r="E354">
-        <v>0.0076513813322841512</v>
+        <v>0.0086035746230939888</v>
       </c>
       <c r="F354">
-        <v>0.0045388534785176038</v>
+        <v>0.0054250521282440045</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>0.95143588590115336</v>
+        <v>0.98696947089620013</v>
       </c>
       <c r="B355">
-        <v>0.96618142045025035</v>
+        <v>0.99165241845911511</v>
       </c>
       <c r="C355">
-        <v>0.97472865274539255</v>
+        <v>0.99518172988488129</v>
       </c>
       <c r="D355">
-        <v>0.00072039057227756345</v>
+        <v>0.00051186088612526024</v>
       </c>
       <c r="E355">
-        <v>0.0051806228898469385</v>
+        <v>0.001215155407285565</v>
       </c>
       <c r="F355">
-        <v>0.0046367679213557833</v>
+        <v>0.00083456533940448867</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>0.99927960942772254</v>
+        <v>0.99948813911387469</v>
       </c>
       <c r="B356">
-        <v>0.994819377110153</v>
+        <v>0.99878484459271455</v>
       </c>
       <c r="C356">
-        <v>0.99536323207864419</v>
+        <v>0.99916543466059538</v>
       </c>
       <c r="D356">
-        <v>0.048564114098846825</v>
+        <v>0.013030529103799867</v>
       </c>
       <c r="E356">
-        <v>0.033818579549749594</v>
+        <v>0.0083475815408849754</v>
       </c>
       <c r="F356">
-        <v>0.025271347254607494</v>
+        <v>0.004818270115118665</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B357">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C357">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D357">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E357">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F357">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B358">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C358">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D358">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E358">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F358">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="359">
@@ -6748,162 +6964,162 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>0.85553013230900565</v>
+        <v>0.95995695592492003</v>
       </c>
       <c r="B361">
-        <v>0.88307384471029793</v>
+        <v>0.9706899127466031</v>
       </c>
       <c r="C361">
-        <v>0.8729089581304772</v>
+        <v>0.97470328195618694</v>
       </c>
       <c r="D361">
-        <v>0.14446986769099443</v>
+        <v>0.040043044075079831</v>
       </c>
       <c r="E361">
-        <v>0.1169261552897021</v>
+        <v>0.029310087253396854</v>
       </c>
       <c r="F361">
-        <v>0.12709104186952289</v>
+        <v>0.025296718043812848</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>0.027774094148353749</v>
+        <v>0.0075748987794415296</v>
       </c>
       <c r="B362">
-        <v>0.017647414682207985</v>
+        <v>0.0051203776876792596</v>
       </c>
       <c r="C362">
-        <v>0.014667946856592071</v>
+        <v>0.0031135329910739903</v>
       </c>
       <c r="D362">
-        <v>0.027774094148353749</v>
+        <v>0.0075748987794415296</v>
       </c>
       <c r="E362">
-        <v>0.017647414682207985</v>
+        <v>0.0051203776876792596</v>
       </c>
       <c r="F362">
-        <v>0.014667946856592071</v>
+        <v>0.0031135329910739903</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>30.803169591751217</v>
+        <v>126.72868428688024</v>
       </c>
       <c r="B363">
-        <v>50.039842130564743</v>
+        <v>189.57388926256237</v>
       </c>
       <c r="C363">
-        <v>59.511325386222971</v>
+        <v>313.05378319436733</v>
       </c>
       <c r="D363">
-        <v>5.2016050251474208</v>
+        <v>5.2862810766208099</v>
       </c>
       <c r="E363">
-        <v>6.6256818573876624</v>
+        <v>5.7242041585962085</v>
       </c>
       <c r="F363">
-        <v>8.6645420188719608</v>
+        <v>8.1247631280396142</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>1.9850016882792688e-150</v>
+        <v>0</v>
       </c>
       <c r="B364">
-        <v>9.147190012992915e-285</v>
+        <v>0</v>
       </c>
       <c r="C364">
         <v>0</v>
       </c>
       <c r="D364">
-        <v>2.3585484265744056e-07</v>
+        <v>1.2993016838161669e-07</v>
       </c>
       <c r="E364">
-        <v>5.4188896008401245e-11</v>
+        <v>1.0974209332640124e-08</v>
       </c>
       <c r="F364">
-        <v>1.6113785293288514e-17</v>
+        <v>5.5522236866507286e-16</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>0.80103345045219021</v>
+        <v>0.94510696996131238</v>
       </c>
       <c r="B365">
-        <v>0.84844713327212895</v>
+        <v>0.96065181996089166</v>
       </c>
       <c r="C365">
-        <v>0.84412838191918227</v>
+        <v>0.96859944841848167</v>
       </c>
       <c r="D365">
-        <v>0.089973185834178945</v>
+        <v>0.025193058111472225</v>
       </c>
       <c r="E365">
-        <v>0.082299443851533108</v>
+        <v>0.019271994467685391</v>
       </c>
       <c r="F365">
-        <v>0.098310465658227986</v>
+        <v>0.019192884506107573</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>0.9100268141658211</v>
+        <v>0.97480694188852768</v>
       </c>
       <c r="B366">
-        <v>0.91770055614846691</v>
+        <v>0.98072800553231454</v>
       </c>
       <c r="C366">
-        <v>0.90168953434177213</v>
+        <v>0.98080711549389221</v>
       </c>
       <c r="D366">
-        <v>0.1989665495478099</v>
+        <v>0.054893030038687438</v>
       </c>
       <c r="E366">
-        <v>0.15155286672787111</v>
+        <v>0.039348180039108317</v>
       </c>
       <c r="F366">
-        <v>0.15587161808081779</v>
+        <v>0.031400551581518124</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B367">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C367">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D367">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E367">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F367">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B368">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C368">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D368">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E368">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F368">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="369">
@@ -6928,162 +7144,162 @@
     </row>
     <row r="371">
       <c r="A371">
-        <v>0.89550663398692798</v>
+        <v>0.97993239571583002</v>
       </c>
       <c r="B371">
-        <v>0.77656005514379545</v>
+        <v>0.95367101291952794</v>
       </c>
       <c r="C371">
-        <v>0.74496321884229377</v>
+        <v>0.93494780417282386</v>
       </c>
       <c r="D371">
-        <v>0.10449336601307188</v>
+        <v>0.020067604284169958</v>
       </c>
       <c r="E371">
-        <v>0.2234399448562045</v>
+        <v>0.04632898708047211</v>
       </c>
       <c r="F371">
-        <v>0.25503678115770628</v>
+        <v>0.065052195827176154</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>0.02894338319012088</v>
+        <v>0.006025582565771498</v>
       </c>
       <c r="B372">
-        <v>0.023887296658302574</v>
+        <v>0.005545897880528775</v>
       </c>
       <c r="C372">
-        <v>0.016901242961995886</v>
+        <v>0.0047731693396156644</v>
       </c>
       <c r="D372">
-        <v>0.02894338319012088</v>
+        <v>0.006025582565771498</v>
       </c>
       <c r="E372">
-        <v>0.023887296658302574</v>
+        <v>0.005545897880528775</v>
       </c>
       <c r="F372">
-        <v>0.016901242961995886</v>
+        <v>0.0047731693396156644</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>30.939943271475858</v>
+        <v>162.6286562368866</v>
       </c>
       <c r="B373">
-        <v>32.509331895197285</v>
+        <v>171.95971391175345</v>
       </c>
       <c r="C373">
-        <v>44.077422028510988</v>
+        <v>195.87568293734699</v>
       </c>
       <c r="D373">
-        <v>3.610267857309029</v>
+        <v>3.3304006816145186</v>
       </c>
       <c r="E373">
-        <v>9.3539234703874641</v>
+        <v>8.3537396610077614</v>
       </c>
       <c r="F373">
-        <v>15.089823969230054</v>
+        <v>13.628721547183607</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>2.0795650446866039e-151</v>
+        <v>0</v>
       </c>
       <c r="B374">
-        <v>1.1502859698906406e-162</v>
+        <v>0</v>
       </c>
       <c r="C374">
-        <v>1.5383550361164877e-244</v>
+        <v>0</v>
       </c>
       <c r="D374">
-        <v>0.00031977451471017031</v>
+        <v>0.00087325528386743528</v>
       </c>
       <c r="E374">
-        <v>4.6420861376397858e-20</v>
+        <v>8.396702931123512e-17</v>
       </c>
       <c r="F374">
-        <v>7.1724592800809185e-47</v>
+        <v>1.3905216013652301e-41</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>0.83871564245551156</v>
+        <v>0.96811972083664666</v>
       </c>
       <c r="B375">
-        <v>0.72968981701997004</v>
+        <v>0.94279872167453183</v>
       </c>
       <c r="C375">
-        <v>0.71180060134107725</v>
+        <v>0.925590385709677</v>
       </c>
       <c r="D375">
-        <v>0.047702374481655506</v>
+        <v>0.0082549294049866235</v>
       </c>
       <c r="E375">
-        <v>0.17656970673237904</v>
+        <v>0.035456695835476046</v>
       </c>
       <c r="F375">
-        <v>0.22187416365648976</v>
+        <v>0.055694777364029294</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>0.9522976255183444</v>
+        <v>0.99174507059501338</v>
       </c>
       <c r="B376">
-        <v>0.82343029326762085</v>
+        <v>0.96454330416452405</v>
       </c>
       <c r="C376">
-        <v>0.77812583634351029</v>
+        <v>0.94430522263597072</v>
       </c>
       <c r="D376">
-        <v>0.16128435754448825</v>
+        <v>0.031880279163353294</v>
       </c>
       <c r="E376">
-        <v>0.27031018298002996</v>
+        <v>0.057201278325468174</v>
       </c>
       <c r="F376">
-        <v>0.2881993986589228</v>
+        <v>0.074409614290323015</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B377">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C377">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D377">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E377">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F377">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B378">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C378">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D378">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E378">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F378">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="379">
@@ -7108,162 +7324,162 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>0.25441129084967318</v>
+        <v>0.85489300113194844</v>
       </c>
       <c r="B381">
-        <v>0.35508327323362332</v>
+        <v>0.86764202402117496</v>
       </c>
       <c r="C381">
-        <v>0.3935973244973604</v>
+        <v>0.84633076142171482</v>
       </c>
       <c r="D381">
-        <v>0.74558870915032682</v>
+        <v>0.14510699886805165</v>
       </c>
       <c r="E381">
-        <v>0.64491672676637668</v>
+        <v>0.13235797597882515</v>
       </c>
       <c r="F381">
-        <v>0.60640267550263971</v>
+        <v>0.15366923857828518</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>0.041495068805107851</v>
+        <v>0.014753101139072916</v>
       </c>
       <c r="B382">
-        <v>0.026830764545113923</v>
+        <v>0.0085397907752187818</v>
       </c>
       <c r="C382">
-        <v>0.018868980904066555</v>
+        <v>0.0067538924426706181</v>
       </c>
       <c r="D382">
-        <v>0.041495068805107851</v>
+        <v>0.014753101139072916</v>
       </c>
       <c r="E382">
-        <v>0.026830764545113923</v>
+        <v>0.0085397907752187818</v>
       </c>
       <c r="F382">
-        <v>0.018868980904066555</v>
+        <v>0.0067538924426706181</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>6.1311210747614506</v>
+        <v>57.946664438421244</v>
       </c>
       <c r="B383">
-        <v>13.234183939729983</v>
+        <v>101.59991583622219</v>
       </c>
       <c r="C383">
-        <v>20.859490318978178</v>
+        <v>125.31007394708517</v>
       </c>
       <c r="D383">
-        <v>17.968128035940222</v>
+        <v>9.8356947126012972</v>
       </c>
       <c r="E383">
-        <v>24.036464770953412</v>
+        <v>15.498971750327719</v>
       </c>
       <c r="F383">
-        <v>32.137542487625851</v>
+        <v>22.752692596555686</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>1.2177920516947438e-09</v>
+        <v>0</v>
       </c>
       <c r="B384">
-        <v>3.4590661108187378e-37</v>
+        <v>0</v>
       </c>
       <c r="C384">
-        <v>1.3816569378628816e-81</v>
+        <v>0</v>
       </c>
       <c r="D384">
-        <v>1.9499893074720547e-63</v>
+        <v>1.2438752007414651e-22</v>
       </c>
       <c r="E384">
-        <v>8.533723685704124e-103</v>
+        <v>5.3227150639648839e-53</v>
       </c>
       <c r="F384">
-        <v>5.3623060083676982e-160</v>
+        <v>2.5218201037492579e-109</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>0.17299212552173149</v>
+        <v>0.82597072095184698</v>
       </c>
       <c r="B385">
-        <v>0.30243753682976415</v>
+        <v>0.85090044412200505</v>
       </c>
       <c r="C385">
-        <v>0.35657372819936228</v>
+        <v>0.83309029301498472</v>
       </c>
       <c r="D385">
-        <v>0.66416954382238513</v>
+        <v>0.11618471868795022</v>
       </c>
       <c r="E385">
-        <v>0.59227099036251751</v>
+        <v>0.11561639607965529</v>
       </c>
       <c r="F385">
-        <v>0.56937907920464159</v>
+        <v>0.14042877017155506</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>0.33583045617761487</v>
+        <v>0.88381528131204989</v>
       </c>
       <c r="B386">
-        <v>0.40772900963748249</v>
+        <v>0.88438360392034487</v>
       </c>
       <c r="C386">
-        <v>0.43062092079535852</v>
+        <v>0.85957122982844492</v>
       </c>
       <c r="D386">
-        <v>0.82700787447826851</v>
+        <v>0.17402927904815307</v>
       </c>
       <c r="E386">
-        <v>0.69756246317023585</v>
+        <v>0.149099555877995</v>
       </c>
       <c r="F386">
-        <v>0.64342627180063783</v>
+        <v>0.16690970698501531</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B387">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C387">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D387">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E387">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F387">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B388">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C388">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D388">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E388">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F388">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="389">
@@ -7288,62 +7504,62 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>0.99314603174603167</v>
+        <v>0.99881781250000012</v>
       </c>
       <c r="B391">
-        <v>0.96970960596780886</v>
+        <v>0.99368357236764027</v>
       </c>
       <c r="C391">
-        <v>0.9835167776228767</v>
+        <v>0.9957860202319877</v>
       </c>
       <c r="D391">
-        <v>0.0068539682539682538</v>
+        <v>0.0011821875000000001</v>
       </c>
       <c r="E391">
-        <v>0.030290394032191255</v>
+        <v>0.0063164276323596936</v>
       </c>
       <c r="F391">
-        <v>0.016483222377123376</v>
+        <v>0.0042139797680124345</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>0.0067993540907487935</v>
+        <v>0.0011803388866720181</v>
       </c>
       <c r="B392">
-        <v>0.0099092597606081616</v>
+        <v>0.0020987182182872562</v>
       </c>
       <c r="C392">
-        <v>0.0049343673306961426</v>
+        <v>0.0012674461851415416</v>
       </c>
       <c r="D392">
-        <v>0.0067993540907487935</v>
+        <v>0.0011803388866720181</v>
       </c>
       <c r="E392">
-        <v>0.0099092597606081616</v>
+        <v>0.0020987182182872562</v>
       </c>
       <c r="F392">
-        <v>0.0049343673306961426</v>
+        <v>0.0012674461851415416</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>146.06476122449732</v>
+        <v>846.21274769331785</v>
       </c>
       <c r="B393">
-        <v>97.858934914861365</v>
+        <v>473.47164746040841</v>
       </c>
       <c r="C393">
-        <v>199.31973274558013</v>
+        <v>785.66335352595945</v>
       </c>
       <c r="D393">
-        <v>1.0080322575483704</v>
+        <v>1.0015661716722679</v>
       </c>
       <c r="E393">
-        <v>3.0567766678802091</v>
+        <v>3.00965969481814</v>
       </c>
       <c r="F393">
-        <v>3.3404935774811717</v>
+        <v>3.3247800320151972</v>
       </c>
     </row>
     <row r="394">
@@ -7357,93 +7573,93 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>0.31366248621651183</v>
+        <v>0.3165997783655593</v>
       </c>
       <c r="E394">
-        <v>0.0022917413502129527</v>
+        <v>0.0026279546707511595</v>
       </c>
       <c r="F394">
-        <v>0.00086461241647161789</v>
+        <v>0.00089101212988010477</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>0.97980474202705314</v>
+        <v>0.99650385208815262</v>
       </c>
       <c r="B395">
-        <v>0.95026624361273404</v>
+        <v>0.98956920239510437</v>
       </c>
       <c r="C395">
-        <v>0.97383485441957574</v>
+        <v>0.99330129289674429</v>
       </c>
       <c r="D395">
-        <v>-0.0064873214650102871</v>
+        <v>-0.0011317729118475069</v>
       </c>
       <c r="E395">
-        <v>0.010847031677116384</v>
+        <v>0.0022020576598237602</v>
       </c>
       <c r="F395">
-        <v>0.0068012991738224185</v>
+        <v>0.0017292524327690785</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1.0064873214650103</v>
+        <v>1.0011317729118476</v>
       </c>
       <c r="B396">
-        <v>0.98915296832288369</v>
+        <v>0.99779794234017616</v>
       </c>
       <c r="C396">
-        <v>0.99319870082617767</v>
+        <v>0.99827074756723111</v>
       </c>
       <c r="D396">
-        <v>0.020195257972946794</v>
+        <v>0.003496147911847507</v>
       </c>
       <c r="E396">
-        <v>0.049733756387266126</v>
+        <v>0.010430797604895627</v>
       </c>
       <c r="F396">
-        <v>0.026165145580424334</v>
+        <v>0.006698707103255791</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B397">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C397">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D397">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E397">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F397">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B398">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C398">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D398">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E398">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F398">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="399">
@@ -7468,162 +7684,162 @@
     </row>
     <row r="401">
       <c r="A401">
-        <v>0.85693604341736695</v>
+        <v>0.97179950206022436</v>
       </c>
       <c r="B401">
-        <v>0.89864706565477248</v>
+        <v>0.9790379486914107</v>
       </c>
       <c r="C401">
-        <v>0.87792267903746934</v>
+        <v>0.96860108877100637</v>
       </c>
       <c r="D401">
-        <v>0.14306395658263305</v>
+        <v>0.028200497939775648</v>
       </c>
       <c r="E401">
-        <v>0.10135293434522752</v>
+        <v>0.020962051308589344</v>
       </c>
       <c r="F401">
-        <v>0.12207732096253081</v>
+        <v>0.031398911228993756</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>0.033330061275306778</v>
+        <v>0.0072375061756022353</v>
       </c>
       <c r="B402">
-        <v>0.017362315498586373</v>
+        <v>0.0037758197257379495</v>
       </c>
       <c r="C402">
-        <v>0.01262697666830768</v>
+        <v>0.0033985652093756879</v>
       </c>
       <c r="D402">
-        <v>0.033330061275306778</v>
+        <v>0.0072375061756022353</v>
       </c>
       <c r="E402">
-        <v>0.017362315498586373</v>
+        <v>0.0037758197257379495</v>
       </c>
       <c r="F402">
-        <v>0.01262697666830768</v>
+        <v>0.0033985652093756879</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>25.710605100274588</v>
+        <v>134.27270091128599</v>
       </c>
       <c r="B403">
-        <v>51.758480355223334</v>
+        <v>259.29149689477475</v>
       </c>
       <c r="C403">
-        <v>69.52754424904883</v>
+        <v>285.00294362424114</v>
       </c>
       <c r="D403">
-        <v>4.2923400410495116</v>
+        <v>3.8964385322170831</v>
       </c>
       <c r="E403">
-        <v>5.8375240533717747</v>
+        <v>5.5516557545639982</v>
       </c>
       <c r="F403">
-        <v>9.667977075536335</v>
+        <v>9.2388726696704158</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>2.3692240672368952e-114</v>
+        <v>0</v>
       </c>
       <c r="B404">
-        <v>5.0034478410977048e-296</v>
+        <v>0</v>
       </c>
       <c r="C404">
         <v>0</v>
       </c>
       <c r="D404">
-        <v>1.9251083597256527e-05</v>
+        <v>9.8844383055868835e-05</v>
       </c>
       <c r="E404">
-        <v>6.981334872748585e-09</v>
+        <v>2.9701405830958746e-08</v>
       </c>
       <c r="F404">
-        <v>2.8569181091221432e-21</v>
+        <v>3.5515041011801874e-20</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>0.79153777206830045</v>
+        <v>0.95761094743413333</v>
       </c>
       <c r="B405">
-        <v>0.86457975894190164</v>
+        <v>0.97163575473992203</v>
       </c>
       <c r="C405">
-        <v>0.85314677359729196</v>
+        <v>0.96193847226283502</v>
       </c>
       <c r="D405">
-        <v>0.077665685233566512</v>
+        <v>0.014011943313684596</v>
       </c>
       <c r="E405">
-        <v>0.067285627632356682</v>
+        <v>0.013559857357100637</v>
       </c>
       <c r="F405">
-        <v>0.097301415522353454</v>
+        <v>0.024736294720822411</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>0.92233431476643346</v>
+        <v>0.9859880566863154</v>
       </c>
       <c r="B406">
-        <v>0.93271437236764332</v>
+        <v>0.98644014264289936</v>
       </c>
       <c r="C406">
-        <v>0.90269858447764673</v>
+        <v>0.97526370527917772</v>
       </c>
       <c r="D406">
-        <v>0.20846222793169958</v>
+        <v>0.042389052565866697</v>
       </c>
       <c r="E406">
-        <v>0.13542024105809836</v>
+        <v>0.028364245260078053</v>
       </c>
       <c r="F406">
-        <v>0.14685322640270815</v>
+        <v>0.038061527737165105</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B407">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="C407">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="D407">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="E407">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="F407">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B408">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="C408">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="D408">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="E408">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="F408">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="409">
@@ -7648,26 +7864,26 @@
     </row>
     <row r="411">
       <c r="A411">
-        <v>0.7725457572287433</v>
+        <v>0.9477656266815041</v>
       </c>
       <c r="B411">
-        <v>0.22745424277125678</v>
+        <v>0.052234373318495897</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>0.012667873801279827</v>
+        <v>0.0031884768317089565</v>
       </c>
       <c r="B412">
-        <v>0.012667873801279827</v>
+        <v>0.0031884768317089565</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>60.984642675449884</v>
+        <v>297.24714235214361</v>
       </c>
       <c r="B413">
-        <v>17.955202770355765</v>
+        <v>16.382233924058145</v>
       </c>
     </row>
     <row r="414">
@@ -7675,39 +7891,39 @@
         <v>0</v>
       </c>
       <c r="B414">
-        <v>2.3339222018936328e-63</v>
+        <v>7.4773927369207999e-59</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>0.74768960585750033</v>
+        <v>0.94151487171106518</v>
       </c>
       <c r="B415">
-        <v>0.20259809140001381</v>
+        <v>0.045983618348056948</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>0.79740190859998628</v>
+        <v>0.95401638165194302</v>
       </c>
       <c r="B416">
-        <v>0.25231039414249978</v>
+        <v>0.058485128288934846</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B417">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B418">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="419">
@@ -7720,66 +7936,66 @@
     </row>
     <row r="421">
       <c r="A421">
-        <v>0.36642767270805349</v>
+        <v>0.854928363118719</v>
       </c>
       <c r="B421">
-        <v>0.63357232729194657</v>
+        <v>0.14507163688128097</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>0.014458331396006916</v>
+        <v>0.0048853681207259286</v>
       </c>
       <c r="B422">
-        <v>0.014458331396006916</v>
+        <v>0.0048853681207259286</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>25.343704101930673</v>
+        <v>174.99773650458977</v>
       </c>
       <c r="B423">
-        <v>43.820570295333376</v>
+        <v>29.695129066287112</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>8.4146210039143166e-112</v>
+        <v>0</v>
       </c>
       <c r="B424">
-        <v>9.0690621680518782e-243</v>
+        <v>3.8932065099104089e-179</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>0.33805839153330458</v>
+        <v>0.84535098787817686</v>
       </c>
       <c r="B425">
-        <v>0.60520304611719766</v>
+        <v>0.13549426164073883</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>0.39479695388280239</v>
+        <v>0.86450573835926114</v>
       </c>
       <c r="B426">
-        <v>0.66194160846669547</v>
+        <v>0.15464901212182311</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B427">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B428">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="429">
@@ -7792,26 +8008,26 @@
     </row>
     <row r="431">
       <c r="A431">
-        <v>0.98139938470347288</v>
+        <v>0.99571954429977527</v>
       </c>
       <c r="B431">
-        <v>0.01860061529652712</v>
+        <v>0.0042804557002248363</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>0.0040437663608464368</v>
+        <v>0.00093672006894079225</v>
       </c>
       <c r="B432">
-        <v>0.0040437663608464368</v>
+        <v>0.00093672006894079225</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>242.69438368295033</v>
+        <v>1062.9851727482442</v>
       </c>
       <c r="B433">
-        <v>4.5998244301714948</v>
+        <v>4.5696210022114867</v>
       </c>
     </row>
     <row r="434">
@@ -7819,39 +8035,39 @@
         <v>0</v>
       </c>
       <c r="B434">
-        <v>4.7235259081200527e-06</v>
+        <v>4.9991564407179941e-06</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>0.97346494595298705</v>
+        <v>0.99388317918380131</v>
       </c>
       <c r="B435">
-        <v>0.010666176546041252</v>
+        <v>0.0024440905842508546</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>0.98933382345395871</v>
+        <v>0.99755590941574923</v>
       </c>
       <c r="B436">
-        <v>0.026535054047012986</v>
+        <v>0.006116820816198818</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B437">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B438">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="439">
@@ -7864,26 +8080,26 @@
     </row>
     <row r="441">
       <c r="A441">
-        <v>0.87962718535973039</v>
+        <v>0.97232741738587547</v>
       </c>
       <c r="B441">
-        <v>0.12037281464026957</v>
+        <v>0.027672582614124464</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>0.0097089226282394987</v>
+        <v>0.0023460218395724639</v>
       </c>
       <c r="B442">
-        <v>0.0097089226282394987</v>
+        <v>0.0023460218395724639</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>90.599875912208361</v>
+        <v>414.45795643704292</v>
       </c>
       <c r="B443">
-        <v>12.39816396210138</v>
+        <v>11.795534955108296</v>
       </c>
     </row>
     <row r="444">
@@ -7891,39 +8107,39 @@
         <v>0</v>
       </c>
       <c r="B444">
-        <v>4.0474270476125923e-33</v>
+        <v>1.0408024392737297e-31</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>0.86057691265533809</v>
+        <v>0.96772822835347283</v>
       </c>
       <c r="B445">
-        <v>0.10132254193587728</v>
+        <v>0.023073393581721776</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>0.89867745806412269</v>
+        <v>0.97692660641827811</v>
       </c>
       <c r="B446">
-        <v>0.13942308734466186</v>
+        <v>0.032271771646527149</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
       <c r="B447">
-        <v>1091.0054744525548</v>
+        <v>5199.0011529592621</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
       <c r="B448">
-        <v>1.9621407476234707</v>
+        <v>1.9604203826341353</v>
       </c>
     </row>
     <row r="449">
